--- a/raw/Jetta book.xlsx
+++ b/raw/Jetta book.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr dateCompatibility="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="15620" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -76,18 +84,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -96,9 +112,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -110,82 +124,411 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="164" borderId="0" fontId="0" applyNumberFormat="1">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P156"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.14" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c t="s" r="A1">
-        <v>0</v>
-      </c>
-      <c t="s" r="B1">
-        <v>1</v>
-      </c>
-      <c t="s" r="C1">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="D1">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="E1">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="F1">
-        <v>5</v>
-      </c>
-      <c t="s" r="G1">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="H1">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="I1">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="J1">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="K1">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="L1">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="M1">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="N1">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="O1">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="P1">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c s="1" r="A2">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A2" s="1">
         <v>40288</v>
       </c>
       <c r="B2">
@@ -198,12 +541,12 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>-3.1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c t="s" r="G2">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2">
@@ -212,10 +555,10 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c t="s" r="J2">
-        <v>17</v>
-      </c>
-      <c t="s" r="K2">
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2">
@@ -234,8 +577,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c s="1" r="A3">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A3" s="1">
         <v>40289</v>
       </c>
       <c r="B3">
@@ -248,12 +591,12 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F3">
         <v>11.2</v>
       </c>
-      <c t="s" r="G3">
+      <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3">
@@ -262,10 +605,10 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c t="s" r="J3">
-        <v>17</v>
-      </c>
-      <c t="s" r="K3">
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
       </c>
       <c r="L3">
@@ -284,8 +627,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c s="1" r="A4">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A4" s="1">
         <v>40295</v>
       </c>
       <c r="B4">
@@ -301,9 +644,9 @@
         <v>6.4</v>
       </c>
       <c r="F4">
-        <v>17.35</v>
-      </c>
-      <c t="s" r="G4">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
       <c r="H4">
@@ -312,10 +655,10 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c t="s" r="J4">
-        <v>17</v>
-      </c>
-      <c t="s" r="K4">
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
         <v>18</v>
       </c>
       <c r="L4">
@@ -334,8 +677,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c s="1" r="A5">
+    <row r="5" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A5" s="1">
         <v>40302</v>
       </c>
       <c r="B5">
@@ -353,7 +696,7 @@
       <c r="F5">
         <v>22</v>
       </c>
-      <c t="s" r="G5">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5">
@@ -362,10 +705,10 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c t="s" r="J5">
-        <v>17</v>
-      </c>
-      <c t="s" r="K5">
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
         <v>18</v>
       </c>
       <c r="L5">
@@ -384,8 +727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c s="1" r="A6">
+    <row r="6" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A6" s="1">
         <v>40306</v>
       </c>
       <c r="B6">
@@ -398,12 +741,12 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F6">
         <v>13.5</v>
       </c>
-      <c t="s" r="G6">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6">
@@ -412,10 +755,10 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c t="s" r="J6">
-        <v>17</v>
-      </c>
-      <c t="s" r="K6">
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
         <v>18</v>
       </c>
       <c r="L6">
@@ -434,8 +777,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c s="1" r="A7">
+    <row r="7" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A7" s="1">
         <v>40311</v>
       </c>
       <c r="B7">
@@ -448,12 +791,12 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F7">
         <v>11.5</v>
       </c>
-      <c t="s" r="G7">
+      <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7">
@@ -462,10 +805,10 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c t="s" r="J7">
-        <v>17</v>
-      </c>
-      <c t="s" r="K7">
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
         <v>18</v>
       </c>
       <c r="L7">
@@ -484,8 +827,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c s="1" r="A8">
+    <row r="8" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A8" s="1">
         <v>40317</v>
       </c>
       <c r="B8">
@@ -503,7 +846,7 @@
       <c r="F8">
         <v>7.6</v>
       </c>
-      <c t="s" r="G8">
+      <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8">
@@ -512,10 +855,10 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c t="s" r="J8">
-        <v>17</v>
-      </c>
-      <c t="s" r="K8">
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
         <v>18</v>
       </c>
       <c r="L8">
@@ -534,8 +877,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c s="1" r="A9">
+    <row r="9" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A9" s="1">
         <v>40322</v>
       </c>
       <c r="B9">
@@ -548,12 +891,12 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>5.154</v>
+        <v>5.1539999999999999</v>
       </c>
       <c r="F9">
         <v>13.81</v>
       </c>
-      <c t="s" r="G9">
+      <c r="G9" t="s">
         <v>19</v>
       </c>
       <c r="H9">
@@ -562,10 +905,10 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c t="s" r="J9">
-        <v>17</v>
-      </c>
-      <c t="s" r="K9">
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
         <v>18</v>
       </c>
       <c r="L9">
@@ -584,8 +927,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c s="1" r="A10">
+    <row r="10" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A10" s="1">
         <v>40326</v>
       </c>
       <c r="B10">
@@ -603,7 +946,7 @@
       <c r="F10">
         <v>22.49</v>
       </c>
-      <c t="s" r="G10">
+      <c r="G10" t="s">
         <v>19</v>
       </c>
       <c r="H10">
@@ -612,10 +955,10 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c t="s" r="J10">
-        <v>17</v>
-      </c>
-      <c t="s" r="K10">
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
         <v>18</v>
       </c>
       <c r="L10">
@@ -634,8 +977,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c s="1" r="A11">
+    <row r="11" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A11" s="1">
         <v>40327</v>
       </c>
       <c r="B11">
@@ -653,7 +996,7 @@
       <c r="F11">
         <v>32.36</v>
       </c>
-      <c t="s" r="G11">
+      <c r="G11" t="s">
         <v>19</v>
       </c>
       <c r="H11">
@@ -662,10 +1005,10 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c t="s" r="J11">
-        <v>17</v>
-      </c>
-      <c t="s" r="K11">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
         <v>18</v>
       </c>
       <c r="L11">
@@ -684,8 +1027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c s="1" r="A12">
+    <row r="12" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A12" s="1">
         <v>40348</v>
       </c>
       <c r="B12">
@@ -701,9 +1044,9 @@
         <v>14.72</v>
       </c>
       <c r="F12">
-        <v>38.7</v>
-      </c>
-      <c t="s" r="G12">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12">
@@ -712,10 +1055,10 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c t="s" r="J12">
-        <v>17</v>
-      </c>
-      <c t="s" r="K12">
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
         <v>18</v>
       </c>
       <c r="L12">
@@ -734,8 +1077,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
-      <c s="1" r="A13">
+    <row r="13" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A13" s="1">
         <v>40376</v>
       </c>
       <c r="B13">
@@ -753,7 +1096,7 @@
       <c r="F13">
         <v>39.14</v>
       </c>
-      <c t="s" r="G13">
+      <c r="G13" t="s">
         <v>19</v>
       </c>
       <c r="H13">
@@ -762,10 +1105,10 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c t="s" r="J13">
-        <v>17</v>
-      </c>
-      <c t="s" r="K13">
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
         <v>18</v>
       </c>
       <c r="L13">
@@ -784,8 +1127,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
-      <c s="1" r="A14">
+    <row r="14" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A14" s="1">
         <v>40378</v>
       </c>
       <c r="B14">
@@ -803,7 +1146,7 @@
       <c r="F14">
         <v>37.47</v>
       </c>
-      <c t="s" r="G14">
+      <c r="G14" t="s">
         <v>19</v>
       </c>
       <c r="H14">
@@ -812,10 +1155,10 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c t="s" r="J14">
-        <v>17</v>
-      </c>
-      <c t="s" r="K14">
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
         <v>18</v>
       </c>
       <c r="L14">
@@ -834,8 +1177,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c s="1" r="A15">
+    <row r="15" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A15" s="1">
         <v>40396</v>
       </c>
       <c r="B15">
@@ -848,12 +1191,12 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>7.198</v>
+        <v>7.1980000000000004</v>
       </c>
       <c r="F15">
         <v>19.43</v>
       </c>
-      <c t="s" r="G15">
+      <c r="G15" t="s">
         <v>19</v>
       </c>
       <c r="H15">
@@ -862,10 +1205,10 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c t="s" r="J15">
-        <v>17</v>
-      </c>
-      <c t="s" r="K15">
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" t="s">
         <v>18</v>
       </c>
       <c r="L15">
@@ -884,8 +1227,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
-      <c s="1" r="A16">
+    <row r="16" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A16" s="1">
         <v>40398</v>
       </c>
       <c r="B16">
@@ -903,7 +1246,7 @@
       <c r="F16">
         <v>28.25</v>
       </c>
-      <c t="s" r="G16">
+      <c r="G16" t="s">
         <v>19</v>
       </c>
       <c r="H16">
@@ -912,10 +1255,10 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c t="s" r="J16">
-        <v>17</v>
-      </c>
-      <c t="s" r="K16">
+      <c r="J16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
         <v>18</v>
       </c>
       <c r="L16">
@@ -934,8 +1277,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c s="1" r="A17">
+    <row r="17" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A17" s="1">
         <v>40399</v>
       </c>
       <c r="B17">
@@ -953,7 +1296,7 @@
       <c r="F17">
         <v>25</v>
       </c>
-      <c t="s" r="G17">
+      <c r="G17" t="s">
         <v>19</v>
       </c>
       <c r="H17">
@@ -962,10 +1305,10 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c t="s" r="J17">
-        <v>17</v>
-      </c>
-      <c t="s" r="K17">
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
         <v>18</v>
       </c>
       <c r="L17">
@@ -984,8 +1327,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c s="1" r="A18">
+    <row r="18" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A18" s="1">
         <v>40405</v>
       </c>
       <c r="B18">
@@ -998,12 +1341,12 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>7.587</v>
+        <v>7.5869999999999997</v>
       </c>
       <c r="F18">
         <v>20</v>
       </c>
-      <c t="s" r="G18">
+      <c r="G18" t="s">
         <v>19</v>
       </c>
       <c r="H18">
@@ -1012,10 +1355,10 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c t="s" r="J18">
-        <v>17</v>
-      </c>
-      <c t="s" r="K18">
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
         <v>18</v>
       </c>
       <c r="L18">
@@ -1034,8 +1377,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
-      <c s="1" r="A19">
+    <row r="19" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A19" s="1">
         <v>40415</v>
       </c>
       <c r="B19">
@@ -1048,12 +1391,12 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>11.133</v>
+        <v>11.132999999999999</v>
       </c>
       <c r="F19">
         <v>31.61</v>
       </c>
-      <c t="s" r="G19">
+      <c r="G19" t="s">
         <v>19</v>
       </c>
       <c r="H19">
@@ -1062,10 +1405,10 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c t="s" r="J19">
-        <v>17</v>
-      </c>
-      <c t="s" r="K19">
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
         <v>18</v>
       </c>
       <c r="L19">
@@ -1084,8 +1427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c s="1" r="A20">
+    <row r="20" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A20" s="1">
         <v>40425</v>
       </c>
       <c r="B20">
@@ -1103,7 +1446,7 @@
       <c r="F20">
         <v>27</v>
       </c>
-      <c t="s" r="G20">
+      <c r="G20" t="s">
         <v>19</v>
       </c>
       <c r="H20">
@@ -1112,10 +1455,10 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c t="s" r="J20">
-        <v>17</v>
-      </c>
-      <c t="s" r="K20">
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" t="s">
         <v>18</v>
       </c>
       <c r="L20">
@@ -1134,8 +1477,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c s="1" r="A21">
+    <row r="21" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A21" s="1">
         <v>40453</v>
       </c>
       <c r="B21">
@@ -1148,12 +1491,12 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>9.793</v>
+        <v>9.7929999999999993</v>
       </c>
       <c r="F21">
         <v>25.45</v>
       </c>
-      <c t="s" r="G21">
+      <c r="G21" t="s">
         <v>19</v>
       </c>
       <c r="H21">
@@ -1162,10 +1505,10 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c t="s" r="J21">
-        <v>17</v>
-      </c>
-      <c t="s" r="K21">
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" t="s">
         <v>18</v>
       </c>
       <c r="L21">
@@ -1184,8 +1527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
-      <c s="1" r="A22">
+    <row r="22" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A22" s="1">
         <v>40467</v>
       </c>
       <c r="B22">
@@ -1203,7 +1546,7 @@
       <c r="F22">
         <v>23.75</v>
       </c>
-      <c t="s" r="G22">
+      <c r="G22" t="s">
         <v>19</v>
       </c>
       <c r="H22">
@@ -1212,10 +1555,10 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c t="s" r="J22">
-        <v>17</v>
-      </c>
-      <c t="s" r="K22">
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" t="s">
         <v>18</v>
       </c>
       <c r="L22">
@@ -1234,8 +1577,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c s="1" r="A23">
+    <row r="23" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A23" s="1">
         <v>40495</v>
       </c>
       <c r="B23">
@@ -1253,7 +1596,7 @@
       <c r="F23">
         <v>23.5</v>
       </c>
-      <c t="s" r="G23">
+      <c r="G23" t="s">
         <v>19</v>
       </c>
       <c r="H23">
@@ -1262,10 +1605,10 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c t="s" r="J23">
-        <v>17</v>
-      </c>
-      <c t="s" r="K23">
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
         <v>18</v>
       </c>
       <c r="L23">
@@ -1284,8 +1627,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
-      <c s="1" r="A24">
+    <row r="24" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A24" s="1">
         <v>40510</v>
       </c>
       <c r="B24">
@@ -1303,7 +1646,7 @@
       <c r="F24">
         <v>25</v>
       </c>
-      <c t="s" r="G24">
+      <c r="G24" t="s">
         <v>19</v>
       </c>
       <c r="H24">
@@ -1312,10 +1655,10 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c t="s" r="J24">
-        <v>17</v>
-      </c>
-      <c t="s" r="K24">
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" t="s">
         <v>18</v>
       </c>
       <c r="L24">
@@ -1334,8 +1677,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
-      <c s="1" r="A25">
+    <row r="25" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A25" s="1">
         <v>40535</v>
       </c>
       <c r="B25">
@@ -1348,12 +1691,12 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F25">
         <v>30.69</v>
       </c>
-      <c t="s" r="G25">
+      <c r="G25" t="s">
         <v>19</v>
       </c>
       <c r="H25">
@@ -1362,10 +1705,10 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c t="s" r="J25">
-        <v>17</v>
-      </c>
-      <c t="s" r="K25">
+      <c r="J25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" t="s">
         <v>18</v>
       </c>
       <c r="L25">
@@ -1384,8 +1727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
-      <c s="1" r="A26">
+    <row r="26" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A26" s="1">
         <v>40540</v>
       </c>
       <c r="B26">
@@ -1403,7 +1746,7 @@
       <c r="F26">
         <v>32.5</v>
       </c>
-      <c t="s" r="G26">
+      <c r="G26" t="s">
         <v>16</v>
       </c>
       <c r="H26">
@@ -1412,10 +1755,10 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c t="s" r="J26">
-        <v>17</v>
-      </c>
-      <c t="s" r="K26">
+      <c r="J26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" t="s">
         <v>18</v>
       </c>
       <c r="L26">
@@ -1434,8 +1777,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c s="1" r="A27">
+    <row r="27" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A27" s="1">
         <v>40562</v>
       </c>
       <c r="B27">
@@ -1453,7 +1796,7 @@
       <c r="F27">
         <v>9.5</v>
       </c>
-      <c t="s" r="G27">
+      <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27">
@@ -1462,10 +1805,10 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c t="s" r="J27">
-        <v>17</v>
-      </c>
-      <c t="s" r="K27">
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" t="s">
         <v>18</v>
       </c>
       <c r="L27">
@@ -1484,8 +1827,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
-      <c s="1" r="A28">
+    <row r="28" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A28" s="1">
         <v>40586</v>
       </c>
       <c r="B28">
@@ -1503,7 +1846,7 @@
       <c r="F28">
         <v>35.5</v>
       </c>
-      <c t="s" r="G28">
+      <c r="G28" t="s">
         <v>19</v>
       </c>
       <c r="H28">
@@ -1512,10 +1855,10 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c t="s" r="J28">
-        <v>17</v>
-      </c>
-      <c t="s" r="K28">
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" t="s">
         <v>18</v>
       </c>
       <c r="L28">
@@ -1534,8 +1877,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
-      <c s="1" r="A29">
+    <row r="29" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A29" s="1">
         <v>40590</v>
       </c>
       <c r="B29">
@@ -1553,7 +1896,7 @@
       <c r="F29">
         <v>30.1</v>
       </c>
-      <c t="s" r="G29">
+      <c r="G29" t="s">
         <v>19</v>
       </c>
       <c r="H29">
@@ -1562,10 +1905,10 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c t="s" r="J29">
-        <v>17</v>
-      </c>
-      <c t="s" r="K29">
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
         <v>18</v>
       </c>
       <c r="L29">
@@ -1584,8 +1927,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
-      <c s="1" r="A30">
+    <row r="30" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A30" s="1">
         <v>40623</v>
       </c>
       <c r="B30">
@@ -1598,12 +1941,12 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>12.001</v>
+        <v>12.000999999999999</v>
       </c>
       <c r="F30">
         <v>45.11</v>
       </c>
-      <c t="s" r="G30">
+      <c r="G30" t="s">
         <v>19</v>
       </c>
       <c r="H30">
@@ -1612,10 +1955,10 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c t="s" r="J30">
-        <v>17</v>
-      </c>
-      <c t="s" r="K30">
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
         <v>18</v>
       </c>
       <c r="L30">
@@ -1634,8 +1977,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c s="1" r="A31">
+    <row r="31" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A31" s="1">
         <v>40627</v>
       </c>
       <c r="B31">
@@ -1653,7 +1996,7 @@
       <c r="F31">
         <v>29</v>
       </c>
-      <c t="s" r="G31">
+      <c r="G31" t="s">
         <v>19</v>
       </c>
       <c r="H31">
@@ -1662,10 +2005,10 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c t="s" r="J31">
-        <v>17</v>
-      </c>
-      <c t="s" r="K31">
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
         <v>18</v>
       </c>
       <c r="L31">
@@ -1684,8 +2027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c s="1" r="A32">
+    <row r="32" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A32" s="1">
         <v>40635</v>
       </c>
       <c r="B32">
@@ -1703,7 +2046,7 @@
       <c r="F32">
         <v>42.57</v>
       </c>
-      <c t="s" r="G32">
+      <c r="G32" t="s">
         <v>19</v>
       </c>
       <c r="H32">
@@ -1712,10 +2055,10 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c t="s" r="J32">
-        <v>17</v>
-      </c>
-      <c t="s" r="K32">
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
         <v>18</v>
       </c>
       <c r="L32">
@@ -1734,8 +2077,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
-      <c s="1" r="A33">
+    <row r="33" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A33" s="1">
         <v>40644</v>
       </c>
       <c r="B33">
@@ -1748,12 +2091,12 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>11.543</v>
+        <v>11.542999999999999</v>
       </c>
       <c r="F33">
         <v>42.47</v>
       </c>
-      <c t="s" r="G33">
+      <c r="G33" t="s">
         <v>19</v>
       </c>
       <c r="H33">
@@ -1762,10 +2105,10 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c t="s" r="J33">
-        <v>17</v>
-      </c>
-      <c t="s" r="K33">
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
         <v>18</v>
       </c>
       <c r="L33">
@@ -1784,8 +2127,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
-      <c s="1" r="A34">
+    <row r="34" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A34" s="1">
         <v>40657</v>
       </c>
       <c r="B34">
@@ -1803,7 +2146,7 @@
       <c r="F34">
         <v>22</v>
       </c>
-      <c t="s" r="G34">
+      <c r="G34" t="s">
         <v>19</v>
       </c>
       <c r="H34">
@@ -1812,10 +2155,10 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c t="s" r="J34">
-        <v>17</v>
-      </c>
-      <c t="s" r="K34">
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
         <v>18</v>
       </c>
       <c r="L34">
@@ -1834,8 +2177,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
-      <c s="1" r="A35">
+    <row r="35" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A35" s="1">
         <v>40684</v>
       </c>
       <c r="B35">
@@ -1853,7 +2196,7 @@
       <c r="F35">
         <v>43.78</v>
       </c>
-      <c t="s" r="G35">
+      <c r="G35" t="s">
         <v>19</v>
       </c>
       <c r="H35">
@@ -1862,10 +2205,10 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c t="s" r="J35">
-        <v>17</v>
-      </c>
-      <c t="s" r="K35">
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
         <v>18</v>
       </c>
       <c r="L35">
@@ -1884,8 +2227,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
-      <c s="1" r="A36">
+    <row r="36" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A36" s="1">
         <v>40685</v>
       </c>
       <c r="B36">
@@ -1903,7 +2246,7 @@
       <c r="F36">
         <v>37</v>
       </c>
-      <c t="s" r="G36">
+      <c r="G36" t="s">
         <v>19</v>
       </c>
       <c r="H36">
@@ -1912,10 +2255,10 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c t="s" r="J36">
-        <v>17</v>
-      </c>
-      <c t="s" r="K36">
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
         <v>18</v>
       </c>
       <c r="L36">
@@ -1934,8 +2277,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
-      <c s="1" r="A37">
+    <row r="37" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A37" s="1">
         <v>40693</v>
       </c>
       <c r="B37">
@@ -1953,7 +2296,7 @@
       <c r="F37">
         <v>38.51</v>
       </c>
-      <c t="s" r="G37">
+      <c r="G37" t="s">
         <v>19</v>
       </c>
       <c r="H37">
@@ -1962,10 +2305,10 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c t="s" r="J37">
-        <v>17</v>
-      </c>
-      <c t="s" r="K37">
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
         <v>18</v>
       </c>
       <c r="L37">
@@ -1984,8 +2327,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
-      <c s="1" r="A38">
+    <row r="38" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A38" s="1">
         <v>40702</v>
       </c>
       <c r="B38">
@@ -2001,9 +2344,9 @@
         <v>10.007</v>
       </c>
       <c r="F38">
-        <v>37.02</v>
-      </c>
-      <c t="s" r="G38">
+        <v>37.020000000000003</v>
+      </c>
+      <c r="G38" t="s">
         <v>19</v>
       </c>
       <c r="H38">
@@ -2012,10 +2355,10 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c t="s" r="J38">
-        <v>17</v>
-      </c>
-      <c t="s" r="K38">
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
         <v>18</v>
       </c>
       <c r="L38">
@@ -2034,8 +2377,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
-      <c s="1" r="A39">
+    <row r="39" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A39" s="1">
         <v>40704</v>
       </c>
       <c r="B39">
@@ -2053,7 +2396,7 @@
       <c r="F39">
         <v>12.95</v>
       </c>
-      <c t="s" r="G39">
+      <c r="G39" t="s">
         <v>19</v>
       </c>
       <c r="H39">
@@ -2062,10 +2405,10 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c t="s" r="J39">
-        <v>17</v>
-      </c>
-      <c t="s" r="K39">
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
         <v>18</v>
       </c>
       <c r="L39">
@@ -2084,8 +2427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40">
-      <c s="1" r="A40">
+    <row r="40" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A40" s="1">
         <v>40705</v>
       </c>
       <c r="B40">
@@ -2103,7 +2446,7 @@
       <c r="F40">
         <v>38.25</v>
       </c>
-      <c t="s" r="G40">
+      <c r="G40" t="s">
         <v>19</v>
       </c>
       <c r="H40">
@@ -2112,10 +2455,10 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c t="s" r="J40">
-        <v>17</v>
-      </c>
-      <c t="s" r="K40">
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
         <v>18</v>
       </c>
       <c r="L40">
@@ -2134,8 +2477,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c s="1" r="A41">
+    <row r="41" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A41" s="1">
         <v>40706</v>
       </c>
       <c r="B41">
@@ -2148,12 +2491,12 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>10.624</v>
+        <v>10.624000000000001</v>
       </c>
       <c r="F41">
-        <v>39.3</v>
-      </c>
-      <c t="s" r="G41">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G41" t="s">
         <v>19</v>
       </c>
       <c r="H41">
@@ -2162,10 +2505,10 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c t="s" r="J41">
-        <v>17</v>
-      </c>
-      <c t="s" r="K41">
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
         <v>18</v>
       </c>
       <c r="L41">
@@ -2184,8 +2527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c s="1" r="A42">
+    <row r="42" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A42" s="1">
         <v>40723</v>
       </c>
       <c r="B42">
@@ -2203,7 +2546,7 @@
       <c r="F42">
         <v>28.5</v>
       </c>
-      <c t="s" r="G42">
+      <c r="G42" t="s">
         <v>16</v>
       </c>
       <c r="H42">
@@ -2212,10 +2555,10 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c t="s" r="J42">
-        <v>17</v>
-      </c>
-      <c t="s" r="K42">
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
         <v>18</v>
       </c>
       <c r="L42">
@@ -2234,8 +2577,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c s="1" r="A43">
+    <row r="43" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A43" s="1">
         <v>40732</v>
       </c>
       <c r="B43">
@@ -2253,7 +2596,7 @@
       <c r="F43">
         <v>27.35</v>
       </c>
-      <c t="s" r="G43">
+      <c r="G43" t="s">
         <v>16</v>
       </c>
       <c r="H43">
@@ -2262,10 +2605,10 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c t="s" r="J43">
-        <v>17</v>
-      </c>
-      <c t="s" r="K43">
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
         <v>18</v>
       </c>
       <c r="L43">
@@ -2284,8 +2627,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44">
-      <c s="1" r="A44">
+    <row r="44" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A44" s="1">
         <v>40742</v>
       </c>
       <c r="B44">
@@ -2303,7 +2646,7 @@
       <c r="F44">
         <v>23</v>
       </c>
-      <c t="s" r="G44">
+      <c r="G44" t="s">
         <v>16</v>
       </c>
       <c r="H44">
@@ -2312,10 +2655,10 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c t="s" r="J44">
-        <v>17</v>
-      </c>
-      <c t="s" r="K44">
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
         <v>18</v>
       </c>
       <c r="L44">
@@ -2334,8 +2677,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45">
-      <c s="1" r="A45">
+    <row r="45" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A45" s="1">
         <v>40750</v>
       </c>
       <c r="B45">
@@ -2353,7 +2696,7 @@
       <c r="F45">
         <v>38.15</v>
       </c>
-      <c t="s" r="G45">
+      <c r="G45" t="s">
         <v>19</v>
       </c>
       <c r="H45">
@@ -2362,10 +2705,10 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c t="s" r="J45">
-        <v>17</v>
-      </c>
-      <c t="s" r="K45">
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
         <v>18</v>
       </c>
       <c r="L45">
@@ -2384,8 +2727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
-      <c s="1" r="A46">
+    <row r="46" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A46" s="1">
         <v>40756</v>
       </c>
       <c r="B46">
@@ -2403,7 +2746,7 @@
       <c r="F46">
         <v>38.89</v>
       </c>
-      <c t="s" r="G46">
+      <c r="G46" t="s">
         <v>19</v>
       </c>
       <c r="H46">
@@ -2412,10 +2755,10 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c t="s" r="J46">
-        <v>17</v>
-      </c>
-      <c t="s" r="K46">
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
         <v>18</v>
       </c>
       <c r="L46">
@@ -2434,8 +2777,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47">
-      <c s="1" r="A47">
+    <row r="47" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A47" s="1">
         <v>40759</v>
       </c>
       <c r="B47">
@@ -2448,12 +2791,12 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>9.258</v>
+        <v>9.2579999999999991</v>
       </c>
       <c r="F47">
         <v>33.5</v>
       </c>
-      <c t="s" r="G47">
+      <c r="G47" t="s">
         <v>19</v>
       </c>
       <c r="H47">
@@ -2462,10 +2805,10 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c t="s" r="J47">
-        <v>17</v>
-      </c>
-      <c t="s" r="K47">
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
         <v>18</v>
       </c>
       <c r="L47">
@@ -2484,8 +2827,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c s="1" r="A48">
+    <row r="48" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A48" s="1">
         <v>40766</v>
       </c>
       <c r="B48">
@@ -2498,12 +2841,12 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>10.406</v>
+        <v>10.406000000000001</v>
       </c>
       <c r="F48">
         <v>37.51</v>
       </c>
-      <c t="s" r="G48">
+      <c r="G48" t="s">
         <v>19</v>
       </c>
       <c r="H48">
@@ -2512,10 +2855,10 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c t="s" r="J48">
-        <v>17</v>
-      </c>
-      <c t="s" r="K48">
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
         <v>18</v>
       </c>
       <c r="L48">
@@ -2534,8 +2877,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
-      <c s="1" r="A49">
+    <row r="49" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A49" s="1">
         <v>40771</v>
       </c>
       <c r="B49">
@@ -2551,9 +2894,9 @@
         <v>10.661</v>
       </c>
       <c r="F49">
-        <v>37.3</v>
-      </c>
-      <c t="s" r="G49">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G49" t="s">
         <v>19</v>
       </c>
       <c r="H49">
@@ -2562,10 +2905,10 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c t="s" r="J49">
-        <v>17</v>
-      </c>
-      <c t="s" r="K49">
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
         <v>18</v>
       </c>
       <c r="L49">
@@ -2584,8 +2927,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50">
-      <c s="1" r="A50">
+    <row r="50" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A50" s="1">
         <v>40773</v>
       </c>
       <c r="B50">
@@ -2598,12 +2941,12 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>6.586</v>
+        <v>6.5860000000000003</v>
       </c>
       <c r="F50">
         <v>23.04</v>
       </c>
-      <c t="s" r="G50">
+      <c r="G50" t="s">
         <v>19</v>
       </c>
       <c r="H50">
@@ -2612,10 +2955,10 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c t="s" r="J50">
-        <v>17</v>
-      </c>
-      <c t="s" r="K50">
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
         <v>18</v>
       </c>
       <c r="L50">
@@ -2634,8 +2977,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
-      <c s="1" r="A51">
+    <row r="51" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A51" s="1">
         <v>40774</v>
       </c>
       <c r="B51">
@@ -2653,7 +2996,7 @@
       <c r="F51">
         <v>30.5</v>
       </c>
-      <c t="s" r="G51">
+      <c r="G51" t="s">
         <v>19</v>
       </c>
       <c r="H51">
@@ -2662,10 +3005,10 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c t="s" r="J51">
-        <v>17</v>
-      </c>
-      <c t="s" r="K51">
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
         <v>18</v>
       </c>
       <c r="L51">
@@ -2684,8 +3027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52">
-      <c s="1" r="A52">
+    <row r="52" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A52" s="1">
         <v>40796</v>
       </c>
       <c r="B52">
@@ -2703,7 +3046,7 @@
       <c r="F52">
         <v>43.84</v>
       </c>
-      <c t="s" r="G52">
+      <c r="G52" t="s">
         <v>19</v>
       </c>
       <c r="H52">
@@ -2712,10 +3055,10 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c t="s" r="J52">
-        <v>17</v>
-      </c>
-      <c t="s" r="K52">
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
         <v>18</v>
       </c>
       <c r="L52">
@@ -2734,8 +3077,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
-      <c s="1" r="A53">
+    <row r="53" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A53" s="1">
         <v>40827</v>
       </c>
       <c r="B53">
@@ -2753,7 +3096,7 @@
       <c r="F53">
         <v>42.2</v>
       </c>
-      <c t="s" r="G53">
+      <c r="G53" t="s">
         <v>19</v>
       </c>
       <c r="H53">
@@ -2762,10 +3105,10 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c t="s" r="J53">
-        <v>17</v>
-      </c>
-      <c t="s" r="K53">
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" t="s">
         <v>18</v>
       </c>
       <c r="L53">
@@ -2784,8 +3127,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c s="1" r="A54">
+    <row r="54" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A54" s="1">
         <v>40852</v>
       </c>
       <c r="B54">
@@ -2803,7 +3146,7 @@
       <c r="F54">
         <v>44.84</v>
       </c>
-      <c t="s" r="G54">
+      <c r="G54" t="s">
         <v>19</v>
       </c>
       <c r="H54">
@@ -2812,10 +3155,10 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c t="s" r="J54">
-        <v>17</v>
-      </c>
-      <c t="s" r="K54">
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" t="s">
         <v>18</v>
       </c>
       <c r="L54">
@@ -2834,8 +3177,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55">
-      <c s="1" r="A55">
+    <row r="55" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A55" s="1">
         <v>40880</v>
       </c>
       <c r="B55">
@@ -2853,7 +3196,7 @@
       <c r="F55">
         <v>36</v>
       </c>
-      <c t="s" r="G55">
+      <c r="G55" t="s">
         <v>19</v>
       </c>
       <c r="H55">
@@ -2862,10 +3205,10 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c t="s" r="J55">
-        <v>17</v>
-      </c>
-      <c t="s" r="K55">
+      <c r="J55" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" t="s">
         <v>18</v>
       </c>
       <c r="L55">
@@ -2884,8 +3227,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c s="1" r="A56">
+    <row r="56" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A56" s="1">
         <v>40892</v>
       </c>
       <c r="B56">
@@ -2903,7 +3246,7 @@
       <c r="F56">
         <v>10</v>
       </c>
-      <c t="s" r="G56">
+      <c r="G56" t="s">
         <v>19</v>
       </c>
       <c r="H56">
@@ -2912,10 +3255,10 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c t="s" r="J56">
-        <v>17</v>
-      </c>
-      <c t="s" r="K56">
+      <c r="J56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" t="s">
         <v>18</v>
       </c>
       <c r="L56">
@@ -2934,8 +3277,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57">
-      <c s="1" r="A57">
+    <row r="57" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A57" s="1">
         <v>40893</v>
       </c>
       <c r="B57">
@@ -2953,7 +3296,7 @@
       <c r="F57">
         <v>34.26</v>
       </c>
-      <c t="s" r="G57">
+      <c r="G57" t="s">
         <v>19</v>
       </c>
       <c r="H57">
@@ -2962,10 +3305,10 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c t="s" r="J57">
-        <v>17</v>
-      </c>
-      <c t="s" r="K57">
+      <c r="J57" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" t="s">
         <v>18</v>
       </c>
       <c r="L57">
@@ -2984,8 +3327,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58">
-      <c s="1" r="A58">
+    <row r="58" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A58" s="1">
         <v>40897</v>
       </c>
       <c r="B58">
@@ -2998,12 +3341,12 @@
         <v>2</v>
       </c>
       <c r="E58">
-        <v>10.126</v>
+        <v>10.125999999999999</v>
       </c>
       <c r="F58">
         <v>36</v>
       </c>
-      <c t="s" r="G58">
+      <c r="G58" t="s">
         <v>19</v>
       </c>
       <c r="H58">
@@ -3012,10 +3355,10 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c t="s" r="J58">
-        <v>17</v>
-      </c>
-      <c t="s" r="K58">
+      <c r="J58" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" t="s">
         <v>18</v>
       </c>
       <c r="L58">
@@ -3034,8 +3377,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c s="1" r="A59">
+    <row r="59" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A59" s="1">
         <v>40916</v>
       </c>
       <c r="B59">
@@ -3053,7 +3396,7 @@
       <c r="F59">
         <v>36.6</v>
       </c>
-      <c t="s" r="G59">
+      <c r="G59" t="s">
         <v>19</v>
       </c>
       <c r="H59">
@@ -3062,10 +3405,10 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c t="s" r="J59">
-        <v>17</v>
-      </c>
-      <c t="s" r="K59">
+      <c r="J59" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" t="s">
         <v>18</v>
       </c>
       <c r="L59">
@@ -3084,8 +3427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60">
-      <c s="1" r="A60">
+    <row r="60" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A60" s="1">
         <v>40916</v>
       </c>
       <c r="B60">
@@ -3098,12 +3441,12 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>5.716</v>
+        <v>5.7160000000000002</v>
       </c>
       <c r="F60">
         <v>18.8</v>
       </c>
-      <c t="s" r="G60">
+      <c r="G60" t="s">
         <v>19</v>
       </c>
       <c r="H60">
@@ -3112,10 +3455,10 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c t="s" r="J60">
-        <v>17</v>
-      </c>
-      <c t="s" r="K60">
+      <c r="J60" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" t="s">
         <v>18</v>
       </c>
       <c r="L60">
@@ -3134,8 +3477,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c s="1" r="A61">
+    <row r="61" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A61" s="1">
         <v>40925</v>
       </c>
       <c r="B61">
@@ -3148,12 +3491,12 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>11.117</v>
+        <v>11.117000000000001</v>
       </c>
       <c r="F61">
         <v>40.01</v>
       </c>
-      <c t="s" r="G61">
+      <c r="G61" t="s">
         <v>19</v>
       </c>
       <c r="H61">
@@ -3162,10 +3505,10 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c t="s" r="J61">
-        <v>17</v>
-      </c>
-      <c t="s" r="K61">
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" t="s">
         <v>18</v>
       </c>
       <c r="L61">
@@ -3184,8 +3527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c s="1" r="A62">
+    <row r="62" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A62" s="1">
         <v>40939</v>
       </c>
       <c r="B62">
@@ -3203,7 +3546,7 @@
       <c r="F62">
         <v>39</v>
       </c>
-      <c t="s" r="G62">
+      <c r="G62" t="s">
         <v>19</v>
       </c>
       <c r="H62">
@@ -3212,10 +3555,10 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c t="s" r="J62">
-        <v>17</v>
-      </c>
-      <c t="s" r="K62">
+      <c r="J62" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" t="s">
         <v>18</v>
       </c>
       <c r="L62">
@@ -3234,8 +3577,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63">
-      <c s="1" r="A63">
+    <row r="63" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A63" s="1">
         <v>40953</v>
       </c>
       <c r="B63">
@@ -3248,12 +3591,12 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>12.809</v>
+        <v>12.808999999999999</v>
       </c>
       <c r="F63">
         <v>45.46</v>
       </c>
-      <c t="s" r="G63">
+      <c r="G63" t="s">
         <v>19</v>
       </c>
       <c r="H63">
@@ -3262,10 +3605,10 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c t="s" r="J63">
-        <v>17</v>
-      </c>
-      <c t="s" r="K63">
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" t="s">
         <v>18</v>
       </c>
       <c r="L63">
@@ -3284,8 +3627,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c s="1" r="A64">
+    <row r="64" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A64" s="1">
         <v>40955</v>
       </c>
       <c r="B64">
@@ -3303,7 +3646,7 @@
       <c r="F64">
         <v>14.2</v>
       </c>
-      <c t="s" r="G64">
+      <c r="G64" t="s">
         <v>19</v>
       </c>
       <c r="H64">
@@ -3312,10 +3655,10 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c t="s" r="J64">
-        <v>17</v>
-      </c>
-      <c t="s" r="K64">
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" t="s">
         <v>18</v>
       </c>
       <c r="L64">
@@ -3334,8 +3677,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65">
-      <c s="1" r="A65">
+    <row r="65" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A65" s="1">
         <v>40956</v>
       </c>
       <c r="B65">
@@ -3348,12 +3691,12 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>6.099</v>
+        <v>6.0990000000000002</v>
       </c>
       <c r="F65">
         <v>20.91</v>
       </c>
-      <c t="s" r="G65">
+      <c r="G65" t="s">
         <v>19</v>
       </c>
       <c r="H65">
@@ -3362,10 +3705,10 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c t="s" r="J65">
-        <v>17</v>
-      </c>
-      <c t="s" r="K65">
+      <c r="J65" t="s">
+        <v>17</v>
+      </c>
+      <c r="K65" t="s">
         <v>18</v>
       </c>
       <c r="L65">
@@ -3384,8 +3727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66">
-      <c s="1" r="A66">
+    <row r="66" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A66" s="1">
         <v>40959</v>
       </c>
       <c r="B66">
@@ -3401,9 +3744,9 @@
         <v>11.022</v>
       </c>
       <c r="F66">
-        <v>40.77</v>
-      </c>
-      <c t="s" r="G66">
+        <v>40.770000000000003</v>
+      </c>
+      <c r="G66" t="s">
         <v>19</v>
       </c>
       <c r="H66">
@@ -3412,10 +3755,10 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c t="s" r="J66">
-        <v>17</v>
-      </c>
-      <c t="s" r="K66">
+      <c r="J66" t="s">
+        <v>17</v>
+      </c>
+      <c r="K66" t="s">
         <v>18</v>
       </c>
       <c r="L66">
@@ -3434,8 +3777,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67">
-      <c s="1" r="A67">
+    <row r="67" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A67" s="1">
         <v>40959</v>
       </c>
       <c r="B67">
@@ -3448,12 +3791,12 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>8.601</v>
+        <v>8.6010000000000009</v>
       </c>
       <c r="F67">
         <v>29.66</v>
       </c>
-      <c t="s" r="G67">
+      <c r="G67" t="s">
         <v>19</v>
       </c>
       <c r="H67">
@@ -3462,10 +3805,10 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c t="s" r="J67">
-        <v>17</v>
-      </c>
-      <c t="s" r="K67">
+      <c r="J67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" t="s">
         <v>18</v>
       </c>
       <c r="L67">
@@ -3484,8 +3827,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68">
-      <c s="1" r="A68">
+    <row r="68" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A68" s="1">
         <v>40969</v>
       </c>
       <c r="B68">
@@ -3503,7 +3846,7 @@
       <c r="F68">
         <v>48.93</v>
       </c>
-      <c t="s" r="G68">
+      <c r="G68" t="s">
         <v>19</v>
       </c>
       <c r="H68">
@@ -3512,10 +3855,10 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c t="s" r="J68">
-        <v>17</v>
-      </c>
-      <c t="s" r="K68">
+      <c r="J68" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" t="s">
         <v>18</v>
       </c>
       <c r="L68">
@@ -3534,8 +3877,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69">
-      <c s="1" r="A69">
+    <row r="69" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A69" s="1">
         <v>40973</v>
       </c>
       <c r="B69">
@@ -3553,7 +3896,7 @@
       <c r="F69">
         <v>44.02</v>
       </c>
-      <c t="s" r="G69">
+      <c r="G69" t="s">
         <v>19</v>
       </c>
       <c r="H69">
@@ -3562,10 +3905,10 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c t="s" r="J69">
-        <v>17</v>
-      </c>
-      <c t="s" r="K69">
+      <c r="J69" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" t="s">
         <v>18</v>
       </c>
       <c r="L69">
@@ -3584,8 +3927,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c s="1" r="A70">
+    <row r="70" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A70" s="1">
         <v>40974</v>
       </c>
       <c r="B70">
@@ -3598,12 +3941,12 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>6.363</v>
+        <v>6.3630000000000004</v>
       </c>
       <c r="F70">
         <v>23.73</v>
       </c>
-      <c t="s" r="G70">
+      <c r="G70" t="s">
         <v>19</v>
       </c>
       <c r="H70">
@@ -3612,10 +3955,10 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c t="s" r="J70">
-        <v>17</v>
-      </c>
-      <c t="s" r="K70">
+      <c r="J70" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" t="s">
         <v>18</v>
       </c>
       <c r="L70">
@@ -3634,8 +3977,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c s="1" r="A71">
+    <row r="71" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A71" s="1">
         <v>40976</v>
       </c>
       <c r="B71">
@@ -3648,12 +3991,12 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>8.112</v>
+        <v>8.1120000000000001</v>
       </c>
       <c r="F71">
         <v>30.01</v>
       </c>
-      <c t="s" r="G71">
+      <c r="G71" t="s">
         <v>19</v>
       </c>
       <c r="H71">
@@ -3662,10 +4005,10 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c t="s" r="J71">
-        <v>17</v>
-      </c>
-      <c t="s" r="K71">
+      <c r="J71" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" t="s">
         <v>18</v>
       </c>
       <c r="L71">
@@ -3684,8 +4027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72">
-      <c s="1" r="A72">
+    <row r="72" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A72" s="1">
         <v>40993</v>
       </c>
       <c r="B72">
@@ -3698,12 +4041,12 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>6.445</v>
+        <v>6.4450000000000003</v>
       </c>
       <c r="F72">
         <v>25</v>
       </c>
-      <c t="s" r="G72">
+      <c r="G72" t="s">
         <v>19</v>
       </c>
       <c r="H72">
@@ -3712,10 +4055,10 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c t="s" r="J72">
-        <v>17</v>
-      </c>
-      <c t="s" r="K72">
+      <c r="J72" t="s">
+        <v>17</v>
+      </c>
+      <c r="K72" t="s">
         <v>18</v>
       </c>
       <c r="L72">
@@ -3734,8 +4077,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c s="1" r="A73">
+    <row r="73" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A73" s="1">
         <v>41004</v>
       </c>
       <c r="B73">
@@ -3753,7 +4096,7 @@
       <c r="F73">
         <v>52.82</v>
       </c>
-      <c t="s" r="G73">
+      <c r="G73" t="s">
         <v>19</v>
       </c>
       <c r="H73">
@@ -3762,10 +4105,10 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c t="s" r="J73">
-        <v>17</v>
-      </c>
-      <c t="s" r="K73">
+      <c r="J73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" t="s">
         <v>18</v>
       </c>
       <c r="L73">
@@ -3784,8 +4127,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74">
-      <c s="1" r="A74">
+    <row r="74" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A74" s="1">
         <v>41018</v>
       </c>
       <c r="B74">
@@ -3803,7 +4146,7 @@
       <c r="F74">
         <v>41.01</v>
       </c>
-      <c t="s" r="G74">
+      <c r="G74" t="s">
         <v>19</v>
       </c>
       <c r="H74">
@@ -3812,10 +4155,10 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c t="s" r="J74">
-        <v>17</v>
-      </c>
-      <c t="s" r="K74">
+      <c r="J74" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" t="s">
         <v>18</v>
       </c>
       <c r="L74">
@@ -3834,8 +4177,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75">
-      <c s="1" r="A75">
+    <row r="75" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A75" s="1">
         <v>41031</v>
       </c>
       <c r="B75">
@@ -3848,12 +4191,12 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>9.976</v>
+        <v>9.9760000000000009</v>
       </c>
       <c r="F75">
         <v>38.1</v>
       </c>
-      <c t="s" r="G75">
+      <c r="G75" t="s">
         <v>19</v>
       </c>
       <c r="H75">
@@ -3862,10 +4205,10 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c t="s" r="J75">
-        <v>17</v>
-      </c>
-      <c t="s" r="K75">
+      <c r="J75" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" t="s">
         <v>18</v>
       </c>
       <c r="L75">
@@ -3884,8 +4227,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76">
-      <c s="1" r="A76">
+    <row r="76" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A76" s="1">
         <v>41034</v>
       </c>
       <c r="B76">
@@ -3898,12 +4241,12 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>7.868</v>
+        <v>7.8680000000000003</v>
       </c>
       <c r="F76">
         <v>29.5</v>
       </c>
-      <c t="s" r="G76">
+      <c r="G76" t="s">
         <v>19</v>
       </c>
       <c r="H76">
@@ -3912,10 +4255,10 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c t="s" r="J76">
-        <v>17</v>
-      </c>
-      <c t="s" r="K76">
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
         <v>18</v>
       </c>
       <c r="L76">
@@ -3934,8 +4277,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77">
-      <c s="1" r="A77">
+    <row r="77" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A77" s="1">
         <v>41035</v>
       </c>
       <c r="B77">
@@ -3948,12 +4291,12 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>9.001</v>
+        <v>9.0009999999999994</v>
       </c>
       <c r="F77">
-        <v>32.84</v>
-      </c>
-      <c t="s" r="G77">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="G77" t="s">
         <v>19</v>
       </c>
       <c r="H77">
@@ -3962,10 +4305,10 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c t="s" r="J77">
-        <v>17</v>
-      </c>
-      <c t="s" r="K77">
+      <c r="J77" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" t="s">
         <v>18</v>
       </c>
       <c r="L77">
@@ -3984,8 +4327,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78">
-      <c s="1" r="A78">
+    <row r="78" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A78" s="1">
         <v>41040</v>
       </c>
       <c r="B78">
@@ -3998,12 +4341,12 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>10.001</v>
+        <v>10.000999999999999</v>
       </c>
       <c r="F78">
         <v>35.39</v>
       </c>
-      <c t="s" r="G78">
+      <c r="G78" t="s">
         <v>19</v>
       </c>
       <c r="H78">
@@ -4012,10 +4355,10 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c t="s" r="J78">
-        <v>17</v>
-      </c>
-      <c t="s" r="K78">
+      <c r="J78" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" t="s">
         <v>18</v>
       </c>
       <c r="L78">
@@ -4034,8 +4377,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c s="1" r="A79">
+    <row r="79" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A79" s="1">
         <v>41044</v>
       </c>
       <c r="B79">
@@ -4048,12 +4391,12 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>11.543</v>
+        <v>11.542999999999999</v>
       </c>
       <c r="F79">
         <v>41.54</v>
       </c>
-      <c t="s" r="G79">
+      <c r="G79" t="s">
         <v>19</v>
       </c>
       <c r="H79">
@@ -4062,10 +4405,10 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c t="s" r="J79">
-        <v>17</v>
-      </c>
-      <c t="s" r="K79">
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
         <v>18</v>
       </c>
       <c r="L79">
@@ -4084,8 +4427,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80">
-      <c s="1" r="A80">
+    <row r="80" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A80" s="1">
         <v>41075</v>
       </c>
       <c r="B80">
@@ -4098,12 +4441,12 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>8.684</v>
+        <v>8.6839999999999993</v>
       </c>
       <c r="F80">
         <v>29</v>
       </c>
-      <c t="s" r="G80">
+      <c r="G80" t="s">
         <v>16</v>
       </c>
       <c r="H80">
@@ -4112,10 +4455,10 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c t="s" r="J80">
-        <v>17</v>
-      </c>
-      <c t="s" r="K80">
+      <c r="J80" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" t="s">
         <v>18</v>
       </c>
       <c r="L80">
@@ -4134,8 +4477,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c s="1" r="A81">
+    <row r="81" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A81" s="1">
         <v>41093</v>
       </c>
       <c r="B81">
@@ -4153,7 +4496,7 @@
       <c r="F81">
         <v>32</v>
       </c>
-      <c t="s" r="G81">
+      <c r="G81" t="s">
         <v>16</v>
       </c>
       <c r="H81">
@@ -4162,10 +4505,10 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c t="s" r="J81">
-        <v>17</v>
-      </c>
-      <c t="s" r="K81">
+      <c r="J81" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" t="s">
         <v>18</v>
       </c>
       <c r="L81">
@@ -4184,8 +4527,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82">
-      <c s="1" r="A82">
+    <row r="82" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A82" s="1">
         <v>41115</v>
       </c>
       <c r="B82">
@@ -4201,9 +4544,9 @@
         <v>5.53</v>
       </c>
       <c r="F82">
-        <v>19.35</v>
-      </c>
-      <c t="s" r="G82">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="G82" t="s">
         <v>16</v>
       </c>
       <c r="H82">
@@ -4212,10 +4555,10 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c t="s" r="J82">
-        <v>17</v>
-      </c>
-      <c t="s" r="K82">
+      <c r="J82" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" t="s">
         <v>18</v>
       </c>
       <c r="L82">
@@ -4234,8 +4577,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c s="1" r="A83">
+    <row r="83" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A83" s="1">
         <v>41137</v>
       </c>
       <c r="B83">
@@ -4253,7 +4596,7 @@
       <c r="F83">
         <v>44.5</v>
       </c>
-      <c t="s" r="G83">
+      <c r="G83" t="s">
         <v>16</v>
       </c>
       <c r="H83">
@@ -4262,10 +4605,10 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c t="s" r="J83">
-        <v>17</v>
-      </c>
-      <c t="s" r="K83">
+      <c r="J83" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" t="s">
         <v>18</v>
       </c>
       <c r="L83">
@@ -4284,8 +4627,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84">
-      <c s="1" r="A84">
+    <row r="84" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A84" s="1">
         <v>41139</v>
       </c>
       <c r="B84">
@@ -4303,7 +4646,7 @@
       <c r="F84">
         <v>14.24</v>
       </c>
-      <c t="s" r="G84">
+      <c r="G84" t="s">
         <v>19</v>
       </c>
       <c r="H84">
@@ -4312,10 +4655,10 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c t="s" r="J84">
-        <v>17</v>
-      </c>
-      <c t="s" r="K84">
+      <c r="J84" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" t="s">
         <v>18</v>
       </c>
       <c r="L84">
@@ -4334,8 +4677,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85">
-      <c s="1" r="A85">
+    <row r="85" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A85" s="1">
         <v>41140</v>
       </c>
       <c r="B85">
@@ -4348,12 +4691,12 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>8.007</v>
+        <v>8.0069999999999997</v>
       </c>
       <c r="F85">
         <v>29.55</v>
       </c>
-      <c t="s" r="G85">
+      <c r="G85" t="s">
         <v>19</v>
       </c>
       <c r="H85">
@@ -4362,10 +4705,10 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c t="s" r="J85">
-        <v>17</v>
-      </c>
-      <c t="s" r="K85">
+      <c r="J85" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" t="s">
         <v>18</v>
       </c>
       <c r="L85">
@@ -4384,8 +4727,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86">
-      <c s="1" r="A86">
+    <row r="86" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A86" s="1">
         <v>41153</v>
       </c>
       <c r="B86">
@@ -4403,7 +4746,7 @@
       <c r="F86">
         <v>45</v>
       </c>
-      <c t="s" r="G86">
+      <c r="G86" t="s">
         <v>19</v>
       </c>
       <c r="H86">
@@ -4412,10 +4755,10 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c t="s" r="J86">
-        <v>17</v>
-      </c>
-      <c t="s" r="K86">
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" t="s">
         <v>18</v>
       </c>
       <c r="L86">
@@ -4434,8 +4777,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
-      <c s="1" r="A87">
+    <row r="87" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A87" s="1">
         <v>41166</v>
       </c>
       <c r="B87">
@@ -4448,12 +4791,12 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>12.438</v>
+        <v>12.438000000000001</v>
       </c>
       <c r="F87">
         <v>48</v>
       </c>
-      <c t="s" r="G87">
+      <c r="G87" t="s">
         <v>19</v>
       </c>
       <c r="H87">
@@ -4462,10 +4805,10 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c t="s" r="J87">
-        <v>17</v>
-      </c>
-      <c t="s" r="K87">
+      <c r="J87" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" t="s">
         <v>18</v>
       </c>
       <c r="L87">
@@ -4484,8 +4827,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88">
-      <c s="1" r="A88">
+    <row r="88" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A88" s="1">
         <v>41190</v>
       </c>
       <c r="B88">
@@ -4503,7 +4846,7 @@
       <c r="F88">
         <v>43.53</v>
       </c>
-      <c t="s" r="G88">
+      <c r="G88" t="s">
         <v>19</v>
       </c>
       <c r="H88">
@@ -4512,10 +4855,10 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c t="s" r="J88">
-        <v>17</v>
-      </c>
-      <c t="s" r="K88">
+      <c r="J88" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" t="s">
         <v>18</v>
       </c>
       <c r="L88">
@@ -4534,8 +4877,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
-      <c s="1" r="A89">
+    <row r="89" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A89" s="1">
         <v>41204</v>
       </c>
       <c r="B89">
@@ -4548,12 +4891,12 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>11.114</v>
+        <v>11.114000000000001</v>
       </c>
       <c r="F89">
         <v>40</v>
       </c>
-      <c t="s" r="G89">
+      <c r="G89" t="s">
         <v>19</v>
       </c>
       <c r="H89">
@@ -4562,10 +4905,10 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c t="s" r="J89">
-        <v>17</v>
-      </c>
-      <c t="s" r="K89">
+      <c r="J89" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" t="s">
         <v>18</v>
       </c>
       <c r="L89">
@@ -4584,8 +4927,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90">
-      <c s="1" r="A90">
+    <row r="90" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A90" s="1">
         <v>41206</v>
       </c>
       <c r="B90">
@@ -4598,12 +4941,12 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>2.001</v>
+        <v>2.0009999999999999</v>
       </c>
       <c r="F90">
         <v>6.54</v>
       </c>
-      <c t="s" r="G90">
+      <c r="G90" t="s">
         <v>19</v>
       </c>
       <c r="H90">
@@ -4612,10 +4955,10 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c t="s" r="J90">
-        <v>17</v>
-      </c>
-      <c t="s" r="K90">
+      <c r="J90" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" t="s">
         <v>18</v>
       </c>
       <c r="L90">
@@ -4634,8 +4977,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
-      <c s="1" r="A91">
+    <row r="91" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A91" s="1">
         <v>41221</v>
       </c>
       <c r="B91">
@@ -4648,12 +4991,12 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>12.425</v>
+        <v>12.425000000000001</v>
       </c>
       <c r="F91">
         <v>40</v>
       </c>
-      <c t="s" r="G91">
+      <c r="G91" t="s">
         <v>19</v>
       </c>
       <c r="H91">
@@ -4662,10 +5005,10 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c t="s" r="J91">
-        <v>17</v>
-      </c>
-      <c t="s" r="K91">
+      <c r="J91" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" t="s">
         <v>18</v>
       </c>
       <c r="L91">
@@ -4684,8 +5027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92">
-      <c s="1" r="A92">
+    <row r="92" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A92" s="1">
         <v>41223</v>
       </c>
       <c r="B92">
@@ -4703,7 +5046,7 @@
       <c r="F92">
         <v>37.31</v>
       </c>
-      <c t="s" r="G92">
+      <c r="G92" t="s">
         <v>19</v>
       </c>
       <c r="H92">
@@ -4712,10 +5055,10 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c t="s" r="J92">
-        <v>17</v>
-      </c>
-      <c t="s" r="K92">
+      <c r="J92" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" t="s">
         <v>18</v>
       </c>
       <c r="L92">
@@ -4734,8 +5077,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
-      <c s="1" r="A93">
+    <row r="93" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A93" s="1">
         <v>41223</v>
       </c>
       <c r="B93">
@@ -4748,12 +5091,12 @@
         <v>3</v>
       </c>
       <c r="E93">
-        <v>9.108</v>
+        <v>9.1080000000000005</v>
       </c>
       <c r="F93">
         <v>30.78</v>
       </c>
-      <c t="s" r="G93">
+      <c r="G93" t="s">
         <v>19</v>
       </c>
       <c r="H93">
@@ -4762,10 +5105,10 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c t="s" r="J93">
-        <v>17</v>
-      </c>
-      <c t="s" r="K93">
+      <c r="J93" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" t="s">
         <v>18</v>
       </c>
       <c r="L93">
@@ -4784,3106 +5127,3162 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
-      <c s="1" r="A94">
+    <row r="94" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A94" s="1">
+        <v>41233</v>
+      </c>
+      <c r="B94">
+        <v>54186</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>12.75</v>
+      </c>
+      <c r="F94">
+        <v>40.53</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94">
+        <v>2007</v>
+      </c>
+      <c r="M94">
+        <v>2.5</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94">
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A95" s="1">
         <v>41237</v>
       </c>
-      <c r="B94">
+      <c r="B95">
         <v>54584</v>
       </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>13.002</v>
-      </c>
-      <c r="F94">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>13.002000000000001</v>
+      </c>
+      <c r="F95">
         <v>43.41</v>
       </c>
-      <c t="s" r="G94">
-        <v>19</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c t="s" r="J94">
-        <v>17</v>
-      </c>
-      <c t="s" r="K94">
-        <v>18</v>
-      </c>
-      <c r="L94">
-        <v>2007</v>
-      </c>
-      <c r="M94">
-        <v>2.5</v>
-      </c>
-      <c r="N94">
-        <v>5</v>
-      </c>
-      <c r="O94">
-        <v>1</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c s="1" r="A95">
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>17</v>
+      </c>
+      <c r="K95" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95">
+        <v>2007</v>
+      </c>
+      <c r="M95">
+        <v>2.5</v>
+      </c>
+      <c r="N95">
+        <v>5</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A96" s="1">
         <v>41238</v>
       </c>
-      <c r="B95">
+      <c r="B96">
         <v>54858</v>
       </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>8.529</v>
-      </c>
-      <c r="F95">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>8.5289999999999999</v>
+      </c>
+      <c r="F96">
         <v>26.77</v>
       </c>
-      <c t="s" r="G95">
-        <v>19</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c t="s" r="J95">
-        <v>17</v>
-      </c>
-      <c t="s" r="K95">
-        <v>18</v>
-      </c>
-      <c r="L95">
-        <v>2007</v>
-      </c>
-      <c r="M95">
-        <v>2.5</v>
-      </c>
-      <c r="N95">
-        <v>5</v>
-      </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c s="1" r="A96">
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96">
+        <v>2007</v>
+      </c>
+      <c r="M96">
+        <v>2.5</v>
+      </c>
+      <c r="N96">
+        <v>5</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A97" s="1">
         <v>41258</v>
       </c>
-      <c r="B96">
+      <c r="B97">
         <v>55164</v>
       </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
         <v>12.538</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <v>41.36</v>
       </c>
-      <c t="s" r="G96">
-        <v>19</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c t="s" r="J96">
-        <v>17</v>
-      </c>
-      <c t="s" r="K96">
-        <v>18</v>
-      </c>
-      <c r="L96">
-        <v>2007</v>
-      </c>
-      <c r="M96">
-        <v>2.5</v>
-      </c>
-      <c r="N96">
-        <v>5</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c s="1" r="A97">
+      <c r="G97" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>17</v>
+      </c>
+      <c r="K97" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97">
+        <v>2007</v>
+      </c>
+      <c r="M97">
+        <v>2.5</v>
+      </c>
+      <c r="N97">
+        <v>5</v>
+      </c>
+      <c r="O97">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A98" s="1">
         <v>41261</v>
       </c>
-      <c r="B97">
+      <c r="B98">
         <v>55383</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
-      <c r="E97">
-        <v>8.401</v>
-      </c>
-      <c r="F97">
-        <v>28.55</v>
-      </c>
-      <c t="s" r="G97">
-        <v>19</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c t="s" r="J97">
-        <v>17</v>
-      </c>
-      <c t="s" r="K97">
-        <v>18</v>
-      </c>
-      <c r="L97">
-        <v>2007</v>
-      </c>
-      <c r="M97">
-        <v>2.5</v>
-      </c>
-      <c r="N97">
-        <v>5</v>
-      </c>
-      <c r="O97">
-        <v>1</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c s="1" r="A98">
-        <v>41264</v>
-      </c>
-      <c r="B98">
-        <v>55690</v>
-      </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>3</v>
       </c>
       <c r="E98">
-        <v>4.102</v>
+        <v>8.4009999999999998</v>
       </c>
       <c r="F98">
+        <v>28.55</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98">
+        <v>2007</v>
+      </c>
+      <c r="M98">
+        <v>2.5</v>
+      </c>
+      <c r="N98">
+        <v>5</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A99" s="1">
+        <v>41264</v>
+      </c>
+      <c r="B99">
+        <v>55690</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="F99">
         <v>14.8</v>
       </c>
-      <c t="s" r="G98">
-        <v>19</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c t="s" r="J98">
-        <v>17</v>
-      </c>
-      <c t="s" r="K98">
-        <v>18</v>
-      </c>
-      <c r="L98">
-        <v>2007</v>
-      </c>
-      <c r="M98">
-        <v>2.5</v>
-      </c>
-      <c r="N98">
-        <v>5</v>
-      </c>
-      <c r="O98">
-        <v>1</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c s="1" r="A99">
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>17</v>
+      </c>
+      <c r="K99" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99">
+        <v>2007</v>
+      </c>
+      <c r="M99">
+        <v>2.5</v>
+      </c>
+      <c r="N99">
+        <v>5</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A100" s="1">
         <v>41269</v>
       </c>
-      <c r="B99">
+      <c r="B100">
         <v>55860</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
         <v>12.003</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <v>39.6</v>
       </c>
-      <c t="s" r="G99">
-        <v>19</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c t="s" r="J99">
-        <v>17</v>
-      </c>
-      <c t="s" r="K99">
-        <v>18</v>
-      </c>
-      <c r="L99">
-        <v>2007</v>
-      </c>
-      <c r="M99">
-        <v>2.5</v>
-      </c>
-      <c r="N99">
-        <v>5</v>
-      </c>
-      <c r="O99">
-        <v>1</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c s="1" r="A100">
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100">
+        <v>2007</v>
+      </c>
+      <c r="M100">
+        <v>2.5</v>
+      </c>
+      <c r="N100">
+        <v>5</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A101" s="1">
         <v>41274</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>56182</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
         <v>10.058</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>31.37</v>
       </c>
-      <c t="s" r="G100">
-        <v>19</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c t="s" r="J100">
-        <v>17</v>
-      </c>
-      <c t="s" r="K100">
-        <v>18</v>
-      </c>
-      <c r="L100">
-        <v>2007</v>
-      </c>
-      <c r="M100">
-        <v>2.5</v>
-      </c>
-      <c r="N100">
-        <v>5</v>
-      </c>
-      <c r="O100">
-        <v>1</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c s="1" r="A101">
+      <c r="G101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101">
+        <v>2007</v>
+      </c>
+      <c r="M101">
+        <v>2.5</v>
+      </c>
+      <c r="N101">
+        <v>5</v>
+      </c>
+      <c r="O101">
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A102" s="1">
         <v>41288</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>56476</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
         <v>10.647</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <v>35.76</v>
       </c>
-      <c t="s" r="G101">
-        <v>19</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c t="s" r="J101">
-        <v>17</v>
-      </c>
-      <c t="s" r="K101">
-        <v>18</v>
-      </c>
-      <c r="L101">
-        <v>2007</v>
-      </c>
-      <c r="M101">
-        <v>2.5</v>
-      </c>
-      <c r="N101">
-        <v>5</v>
-      </c>
-      <c r="O101">
-        <v>1</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c s="1" r="A102">
+      <c r="G102" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" t="s">
+        <v>18</v>
+      </c>
+      <c r="L102">
+        <v>2007</v>
+      </c>
+      <c r="M102">
+        <v>2.5</v>
+      </c>
+      <c r="N102">
+        <v>5</v>
+      </c>
+      <c r="O102">
+        <v>1</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A103" s="1">
         <v>41313</v>
       </c>
-      <c r="B102">
+      <c r="B103">
         <v>56766</v>
       </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
         <v>13</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <v>46.01</v>
       </c>
-      <c t="s" r="G102">
-        <v>19</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c t="s" r="J102">
-        <v>17</v>
-      </c>
-      <c t="s" r="K102">
-        <v>18</v>
-      </c>
-      <c r="L102">
-        <v>2007</v>
-      </c>
-      <c r="M102">
-        <v>2.5</v>
-      </c>
-      <c r="N102">
-        <v>5</v>
-      </c>
-      <c r="O102">
-        <v>1</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c s="1" r="A103">
+      <c r="G103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" t="s">
+        <v>18</v>
+      </c>
+      <c r="L103">
+        <v>2007</v>
+      </c>
+      <c r="M103">
+        <v>2.5</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103">
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A104" s="1">
         <v>41322</v>
       </c>
-      <c r="B103">
+      <c r="B104">
         <v>57081</v>
       </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
         <v>5.75</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <v>20</v>
       </c>
-      <c t="s" r="G103">
-        <v>19</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c t="s" r="J103">
-        <v>17</v>
-      </c>
-      <c t="s" r="K103">
-        <v>18</v>
-      </c>
-      <c r="L103">
-        <v>2007</v>
-      </c>
-      <c r="M103">
-        <v>2.5</v>
-      </c>
-      <c r="N103">
-        <v>5</v>
-      </c>
-      <c r="O103">
-        <v>1</v>
-      </c>
-      <c r="P103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c s="1" r="A104">
+      <c r="G104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104">
+        <v>2007</v>
+      </c>
+      <c r="M104">
+        <v>2.5</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A105" s="1">
         <v>41322</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>57159</v>
       </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>9.682</v>
-      </c>
-      <c r="F104">
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>9.6820000000000004</v>
+      </c>
+      <c r="F105">
         <v>34.46</v>
       </c>
-      <c t="s" r="G104">
-        <v>19</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c t="s" r="J104">
-        <v>17</v>
-      </c>
-      <c t="s" r="K104">
-        <v>18</v>
-      </c>
-      <c r="L104">
-        <v>2007</v>
-      </c>
-      <c r="M104">
-        <v>2.5</v>
-      </c>
-      <c r="N104">
-        <v>5</v>
-      </c>
-      <c r="O104">
-        <v>1</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c s="1" r="A105">
+      <c r="G105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105">
+        <v>2007</v>
+      </c>
+      <c r="M105">
+        <v>2.5</v>
+      </c>
+      <c r="N105">
+        <v>5</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A106" s="1">
         <v>41346</v>
       </c>
-      <c r="B105">
+      <c r="B106">
         <v>57508</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
         <v>11.89</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <v>43.87</v>
       </c>
-      <c t="s" r="G105">
-        <v>19</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c t="s" r="J105">
-        <v>17</v>
-      </c>
-      <c t="s" r="K105">
-        <v>18</v>
-      </c>
-      <c r="L105">
-        <v>2007</v>
-      </c>
-      <c r="M105">
-        <v>2.5</v>
-      </c>
-      <c r="N105">
-        <v>5</v>
-      </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c s="1" r="A106">
+      <c r="G106" t="s">
+        <v>19</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106">
+        <v>2007</v>
+      </c>
+      <c r="M106">
+        <v>2.5</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+      <c r="O106">
+        <v>1</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A107" s="1">
         <v>41346</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>57831</v>
       </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
         <v>12.151</v>
       </c>
-      <c r="F106">
+      <c r="F107">
         <v>44.95</v>
       </c>
-      <c t="s" r="G106">
-        <v>19</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c t="s" r="J106">
-        <v>17</v>
-      </c>
-      <c t="s" r="K106">
-        <v>18</v>
-      </c>
-      <c r="L106">
-        <v>2007</v>
-      </c>
-      <c r="M106">
-        <v>2.5</v>
-      </c>
-      <c r="N106">
-        <v>5</v>
-      </c>
-      <c r="O106">
-        <v>1</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c s="1" r="A107">
+      <c r="G107" t="s">
+        <v>19</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>17</v>
+      </c>
+      <c r="K107" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107">
+        <v>2007</v>
+      </c>
+      <c r="M107">
+        <v>2.5</v>
+      </c>
+      <c r="N107">
+        <v>5</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A108" s="1">
         <v>41355</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>58184</v>
       </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="E107">
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
         <v>12.884</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <v>47.4</v>
       </c>
-      <c t="s" r="G107">
-        <v>19</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c t="s" r="J107">
-        <v>17</v>
-      </c>
-      <c t="s" r="K107">
-        <v>18</v>
-      </c>
-      <c r="L107">
-        <v>2007</v>
-      </c>
-      <c r="M107">
-        <v>2.5</v>
-      </c>
-      <c r="N107">
-        <v>5</v>
-      </c>
-      <c r="O107">
-        <v>1</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c s="1" r="A108">
+      <c r="G108" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>17</v>
+      </c>
+      <c r="K108" t="s">
+        <v>18</v>
+      </c>
+      <c r="L108">
+        <v>2007</v>
+      </c>
+      <c r="M108">
+        <v>2.5</v>
+      </c>
+      <c r="N108">
+        <v>5</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A109" s="1">
         <v>41357</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>58557</v>
       </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108">
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
         <v>3</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>12.577</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <v>46.77</v>
       </c>
-      <c t="s" r="G108">
-        <v>19</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-      <c t="s" r="J108">
-        <v>17</v>
-      </c>
-      <c t="s" r="K108">
-        <v>18</v>
-      </c>
-      <c r="L108">
-        <v>2007</v>
-      </c>
-      <c r="M108">
-        <v>2.5</v>
-      </c>
-      <c r="N108">
-        <v>5</v>
-      </c>
-      <c r="O108">
-        <v>1</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c s="1" r="A109">
+      <c r="G109" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" t="s">
+        <v>18</v>
+      </c>
+      <c r="L109">
+        <v>2007</v>
+      </c>
+      <c r="M109">
+        <v>2.5</v>
+      </c>
+      <c r="N109">
+        <v>5</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A110" s="1">
         <v>41359</v>
       </c>
-      <c r="B109">
+      <c r="B110">
         <v>58893</v>
       </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>9.974</v>
-      </c>
-      <c r="F109">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>9.9740000000000002</v>
+      </c>
+      <c r="F110">
         <v>36.94</v>
       </c>
-      <c t="s" r="G109">
-        <v>19</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109">
-        <v>1</v>
-      </c>
-      <c t="s" r="J109">
-        <v>17</v>
-      </c>
-      <c t="s" r="K109">
-        <v>18</v>
-      </c>
-      <c r="L109">
-        <v>2007</v>
-      </c>
-      <c r="M109">
-        <v>2.5</v>
-      </c>
-      <c r="N109">
-        <v>5</v>
-      </c>
-      <c r="O109">
-        <v>1</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c s="1" r="A110">
+      <c r="G110" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" t="s">
+        <v>18</v>
+      </c>
+      <c r="L110">
+        <v>2007</v>
+      </c>
+      <c r="M110">
+        <v>2.5</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A111" s="1">
         <v>41393</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>59145</v>
       </c>
-      <c r="C110">
-        <v>1</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
         <v>12.185</v>
       </c>
-      <c r="F110">
+      <c r="F111">
         <v>41.29</v>
       </c>
-      <c t="s" r="G110">
-        <v>19</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>1</v>
-      </c>
-      <c t="s" r="J110">
-        <v>17</v>
-      </c>
-      <c t="s" r="K110">
-        <v>18</v>
-      </c>
-      <c r="L110">
-        <v>2007</v>
-      </c>
-      <c r="M110">
-        <v>2.5</v>
-      </c>
-      <c r="N110">
-        <v>5</v>
-      </c>
-      <c r="O110">
-        <v>1</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c s="1" r="A111">
+      <c r="G111" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" t="s">
+        <v>18</v>
+      </c>
+      <c r="L111">
+        <v>2007</v>
+      </c>
+      <c r="M111">
+        <v>2.5</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A112" s="1">
         <v>41402</v>
       </c>
-      <c r="B111">
+      <c r="B112">
         <v>59446</v>
       </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
         <v>3</v>
       </c>
-      <c r="E111">
+      <c r="E112">
         <v>10.78</v>
       </c>
-      <c r="F111">
+      <c r="F112">
         <v>39.57</v>
       </c>
-      <c t="s" r="G111">
-        <v>19</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-      <c t="s" r="J111">
-        <v>17</v>
-      </c>
-      <c t="s" r="K111">
-        <v>18</v>
-      </c>
-      <c r="L111">
-        <v>2007</v>
-      </c>
-      <c r="M111">
-        <v>2.5</v>
-      </c>
-      <c r="N111">
-        <v>5</v>
-      </c>
-      <c r="O111">
-        <v>1</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c s="1" r="A112">
+      <c r="G112" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K112" t="s">
+        <v>18</v>
+      </c>
+      <c r="L112">
+        <v>2007</v>
+      </c>
+      <c r="M112">
+        <v>2.5</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A113" s="1">
         <v>41402</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>59512</v>
       </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-      <c r="D112">
-        <v>1</v>
-      </c>
-      <c r="E112">
-        <v>2.382</v>
-      </c>
-      <c r="F112">
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>2.3820000000000001</v>
+      </c>
+      <c r="F113">
         <v>8</v>
       </c>
-      <c t="s" r="G112">
-        <v>19</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-      <c t="s" r="J112">
-        <v>17</v>
-      </c>
-      <c t="s" r="K112">
-        <v>18</v>
-      </c>
-      <c r="L112">
-        <v>2007</v>
-      </c>
-      <c r="M112">
-        <v>2.5</v>
-      </c>
-      <c r="N112">
-        <v>5</v>
-      </c>
-      <c r="O112">
-        <v>1</v>
-      </c>
-      <c r="P112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c s="1" r="A113">
+      <c r="G113" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" t="s">
+        <v>18</v>
+      </c>
+      <c r="L113">
+        <v>2007</v>
+      </c>
+      <c r="M113">
+        <v>2.5</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A114" s="1">
         <v>41403</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>59753</v>
       </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113">
-        <v>8.382</v>
-      </c>
-      <c r="F113">
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>8.3819999999999997</v>
+      </c>
+      <c r="F114">
         <v>28.32</v>
       </c>
-      <c t="s" r="G113">
-        <v>19</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c t="s" r="J113">
-        <v>17</v>
-      </c>
-      <c t="s" r="K113">
-        <v>18</v>
-      </c>
-      <c r="L113">
-        <v>2007</v>
-      </c>
-      <c r="M113">
-        <v>2.5</v>
-      </c>
-      <c r="N113">
-        <v>5</v>
-      </c>
-      <c r="O113">
-        <v>1</v>
-      </c>
-      <c r="P113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c s="1" r="A114">
+      <c r="G114" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>17</v>
+      </c>
+      <c r="K114" t="s">
+        <v>18</v>
+      </c>
+      <c r="L114">
+        <v>2007</v>
+      </c>
+      <c r="M114">
+        <v>2.5</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114">
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A115" s="1">
         <v>41404</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>60026</v>
       </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>7.472</v>
-      </c>
-      <c r="F114">
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>7.4720000000000004</v>
+      </c>
+      <c r="F115">
         <v>24.65</v>
       </c>
-      <c t="s" r="G114">
-        <v>19</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c t="s" r="J114">
-        <v>17</v>
-      </c>
-      <c t="s" r="K114">
-        <v>18</v>
-      </c>
-      <c r="L114">
-        <v>2007</v>
-      </c>
-      <c r="M114">
-        <v>2.5</v>
-      </c>
-      <c r="N114">
-        <v>5</v>
-      </c>
-      <c r="O114">
-        <v>1</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c s="1" r="A115">
+      <c r="G115" t="s">
+        <v>19</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L115">
+        <v>2007</v>
+      </c>
+      <c r="M115">
+        <v>2.5</v>
+      </c>
+      <c r="N115">
+        <v>5</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A116" s="1">
         <v>41410</v>
       </c>
-      <c r="B115">
+      <c r="B116">
         <v>60245</v>
       </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>8.055</v>
-      </c>
-      <c r="F115">
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>8.0549999999999997</v>
+      </c>
+      <c r="F116">
         <v>27.38</v>
       </c>
-      <c t="s" r="G115">
-        <v>19</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c t="s" r="J115">
-        <v>17</v>
-      </c>
-      <c t="s" r="K115">
-        <v>18</v>
-      </c>
-      <c r="L115">
-        <v>2007</v>
-      </c>
-      <c r="M115">
-        <v>2.5</v>
-      </c>
-      <c r="N115">
-        <v>5</v>
-      </c>
-      <c r="O115">
-        <v>1</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c s="1" r="A116">
+      <c r="G116" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" t="s">
+        <v>18</v>
+      </c>
+      <c r="L116">
+        <v>2007</v>
+      </c>
+      <c r="M116">
+        <v>2.5</v>
+      </c>
+      <c r="N116">
+        <v>5</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A117" s="1">
         <v>41411</v>
       </c>
-      <c r="B116">
+      <c r="B117">
         <v>60595</v>
       </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-      <c r="E116">
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
         <v>11.866</v>
       </c>
-      <c r="F116">
-        <v>38.55</v>
-      </c>
-      <c t="s" r="G116">
-        <v>19</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c t="s" r="J116">
-        <v>17</v>
-      </c>
-      <c t="s" r="K116">
-        <v>18</v>
-      </c>
-      <c r="L116">
-        <v>2007</v>
-      </c>
-      <c r="M116">
-        <v>2.5</v>
-      </c>
-      <c r="N116">
-        <v>5</v>
-      </c>
-      <c r="O116">
-        <v>1</v>
-      </c>
-      <c r="P116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c s="1" r="A117">
+      <c r="F117">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="G117" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" t="s">
+        <v>18</v>
+      </c>
+      <c r="L117">
+        <v>2007</v>
+      </c>
+      <c r="M117">
+        <v>2.5</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A118" s="1">
         <v>41419</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <v>60959</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
-        <v>12.428</v>
-      </c>
-      <c r="F117">
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>12.428000000000001</v>
+      </c>
+      <c r="F118">
         <v>40.5</v>
       </c>
-      <c t="s" r="G117">
-        <v>19</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c t="s" r="J117">
-        <v>17</v>
-      </c>
-      <c t="s" r="K117">
-        <v>18</v>
-      </c>
-      <c r="L117">
-        <v>2007</v>
-      </c>
-      <c r="M117">
-        <v>2.5</v>
-      </c>
-      <c r="N117">
-        <v>5</v>
-      </c>
-      <c r="O117">
-        <v>1</v>
-      </c>
-      <c r="P117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c s="1" r="A118">
+      <c r="G118" t="s">
+        <v>19</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L118">
+        <v>2007</v>
+      </c>
+      <c r="M118">
+        <v>2.5</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118">
+        <v>1</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A119" s="1">
         <v>41421</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <v>61321</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
         <v>12.058</v>
       </c>
-      <c r="F118">
-        <v>39.3</v>
-      </c>
-      <c t="s" r="G118">
-        <v>19</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c t="s" r="J118">
-        <v>17</v>
-      </c>
-      <c t="s" r="K118">
-        <v>18</v>
-      </c>
-      <c r="L118">
-        <v>2007</v>
-      </c>
-      <c r="M118">
-        <v>2.5</v>
-      </c>
-      <c r="N118">
-        <v>5</v>
-      </c>
-      <c r="O118">
-        <v>1</v>
-      </c>
-      <c r="P118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c s="1" r="A119">
+      <c r="F119">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="G119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>17</v>
+      </c>
+      <c r="K119" t="s">
+        <v>18</v>
+      </c>
+      <c r="L119">
+        <v>2007</v>
+      </c>
+      <c r="M119">
+        <v>2.5</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119">
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A120" s="1">
         <v>41426</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <v>61710</v>
       </c>
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>12.001</v>
-      </c>
-      <c r="F119">
-        <v>38.87</v>
-      </c>
-      <c t="s" r="G119">
-        <v>19</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c t="s" r="J119">
-        <v>17</v>
-      </c>
-      <c t="s" r="K119">
-        <v>18</v>
-      </c>
-      <c r="L119">
-        <v>2007</v>
-      </c>
-      <c r="M119">
-        <v>2.5</v>
-      </c>
-      <c r="N119">
-        <v>5</v>
-      </c>
-      <c r="O119">
-        <v>1</v>
-      </c>
-      <c r="P119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c s="1" r="A120">
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>12.000999999999999</v>
+      </c>
+      <c r="F120">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="G120" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>17</v>
+      </c>
+      <c r="K120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L120">
+        <v>2007</v>
+      </c>
+      <c r="M120">
+        <v>2.5</v>
+      </c>
+      <c r="N120">
+        <v>5</v>
+      </c>
+      <c r="O120">
+        <v>1</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A121" s="1">
         <v>41428</v>
       </c>
-      <c r="B120">
+      <c r="B121">
         <v>62063</v>
       </c>
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
         <v>12.31</v>
       </c>
-      <c r="F120">
-        <v>39.38</v>
-      </c>
-      <c t="s" r="G120">
-        <v>19</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c t="s" r="J120">
-        <v>17</v>
-      </c>
-      <c t="s" r="K120">
-        <v>18</v>
-      </c>
-      <c r="L120">
-        <v>2007</v>
-      </c>
-      <c r="M120">
-        <v>2.5</v>
-      </c>
-      <c r="N120">
-        <v>5</v>
-      </c>
-      <c r="O120">
-        <v>1</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c s="1" r="A121">
+      <c r="F121">
+        <v>39.380000000000003</v>
+      </c>
+      <c r="G121" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>17</v>
+      </c>
+      <c r="K121" t="s">
+        <v>18</v>
+      </c>
+      <c r="L121">
+        <v>2007</v>
+      </c>
+      <c r="M121">
+        <v>2.5</v>
+      </c>
+      <c r="N121">
+        <v>5</v>
+      </c>
+      <c r="O121">
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A122" s="1">
         <v>41436</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>62423</v>
       </c>
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>11.601</v>
-      </c>
-      <c r="F121">
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>11.601000000000001</v>
+      </c>
+      <c r="F122">
         <v>37.11</v>
       </c>
-      <c t="s" r="G121">
-        <v>19</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-      <c t="s" r="J121">
-        <v>17</v>
-      </c>
-      <c t="s" r="K121">
-        <v>18</v>
-      </c>
-      <c r="L121">
-        <v>2007</v>
-      </c>
-      <c r="M121">
-        <v>2.5</v>
-      </c>
-      <c r="N121">
-        <v>5</v>
-      </c>
-      <c r="O121">
-        <v>1</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c s="1" r="A122">
+      <c r="G122" t="s">
+        <v>19</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>17</v>
+      </c>
+      <c r="K122" t="s">
+        <v>18</v>
+      </c>
+      <c r="L122">
+        <v>2007</v>
+      </c>
+      <c r="M122">
+        <v>2.5</v>
+      </c>
+      <c r="N122">
+        <v>5</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A123" s="1">
         <v>41439</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>62771</v>
       </c>
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="E122">
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
         <v>10.645</v>
       </c>
-      <c r="F122">
+      <c r="F123">
         <v>37.24</v>
       </c>
-      <c t="s" r="G122">
-        <v>19</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122">
-        <v>1</v>
-      </c>
-      <c t="s" r="J122">
-        <v>17</v>
-      </c>
-      <c t="s" r="K122">
-        <v>18</v>
-      </c>
-      <c r="L122">
-        <v>2007</v>
-      </c>
-      <c r="M122">
-        <v>2.5</v>
-      </c>
-      <c r="N122">
-        <v>5</v>
-      </c>
-      <c r="O122">
-        <v>1</v>
-      </c>
-      <c r="P122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c s="1" r="A123">
+      <c r="G123" t="s">
+        <v>19</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>17</v>
+      </c>
+      <c r="K123" t="s">
+        <v>18</v>
+      </c>
+      <c r="L123">
+        <v>2007</v>
+      </c>
+      <c r="M123">
+        <v>2.5</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123">
+        <v>1</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A124" s="1">
         <v>41441</v>
       </c>
-      <c r="B123">
+      <c r="B124">
         <v>63061</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-      <c r="E123">
-        <v>7.437</v>
-      </c>
-      <c r="F123">
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>7.4370000000000003</v>
+      </c>
+      <c r="F124">
         <v>25.72</v>
       </c>
-      <c t="s" r="G123">
-        <v>19</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-      <c t="s" r="J123">
-        <v>17</v>
-      </c>
-      <c t="s" r="K123">
-        <v>18</v>
-      </c>
-      <c r="L123">
-        <v>2007</v>
-      </c>
-      <c r="M123">
-        <v>2.5</v>
-      </c>
-      <c r="N123">
-        <v>5</v>
-      </c>
-      <c r="O123">
-        <v>1</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c s="1" r="A124">
+      <c r="G124" t="s">
+        <v>19</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>17</v>
+      </c>
+      <c r="K124" t="s">
+        <v>18</v>
+      </c>
+      <c r="L124">
+        <v>2007</v>
+      </c>
+      <c r="M124">
+        <v>2.5</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A125" s="1">
         <v>41445</v>
       </c>
-      <c r="B124">
+      <c r="B125">
         <v>63388</v>
       </c>
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
         <v>12.458</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <v>40.97</v>
       </c>
-      <c t="s" r="G124">
-        <v>19</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
-      <c t="s" r="J124">
-        <v>17</v>
-      </c>
-      <c t="s" r="K124">
-        <v>18</v>
-      </c>
-      <c r="L124">
-        <v>2007</v>
-      </c>
-      <c r="M124">
-        <v>2.5</v>
-      </c>
-      <c r="N124">
-        <v>5</v>
-      </c>
-      <c r="O124">
-        <v>1</v>
-      </c>
-      <c r="P124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c s="1" r="A125">
+      <c r="G125" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>17</v>
+      </c>
+      <c r="K125" t="s">
+        <v>18</v>
+      </c>
+      <c r="L125">
+        <v>2007</v>
+      </c>
+      <c r="M125">
+        <v>2.5</v>
+      </c>
+      <c r="N125">
+        <v>5</v>
+      </c>
+      <c r="O125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A126" s="1">
         <v>41458</v>
       </c>
-      <c r="B125">
+      <c r="B126">
         <v>63577</v>
       </c>
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="E125">
-        <v>62.52</v>
-      </c>
-      <c r="F125">
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>6.2519999999999998</v>
+      </c>
+      <c r="F126">
         <v>20</v>
       </c>
-      <c t="s" r="G125">
-        <v>19</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-      <c t="s" r="J125">
-        <v>17</v>
-      </c>
-      <c t="s" r="K125">
-        <v>18</v>
-      </c>
-      <c r="L125">
-        <v>2007</v>
-      </c>
-      <c r="M125">
-        <v>2.5</v>
-      </c>
-      <c r="N125">
-        <v>5</v>
-      </c>
-      <c r="O125">
-        <v>1</v>
-      </c>
-      <c r="P125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c s="1" r="A126">
+      <c r="G126" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>17</v>
+      </c>
+      <c r="K126" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126">
+        <v>2007</v>
+      </c>
+      <c r="M126">
+        <v>2.5</v>
+      </c>
+      <c r="N126">
+        <v>5</v>
+      </c>
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A127" s="1">
         <v>41459</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <v>63966</v>
       </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
         <v>3</v>
       </c>
-      <c r="E126">
-        <v>13.092</v>
-      </c>
-      <c r="F126">
+      <c r="E127">
+        <v>13.092000000000001</v>
+      </c>
+      <c r="F127">
         <v>50</v>
       </c>
-      <c t="s" r="G126">
-        <v>19</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c t="s" r="J126">
-        <v>17</v>
-      </c>
-      <c t="s" r="K126">
-        <v>18</v>
-      </c>
-      <c r="L126">
-        <v>2007</v>
-      </c>
-      <c r="M126">
-        <v>2.5</v>
-      </c>
-      <c r="N126">
-        <v>5</v>
-      </c>
-      <c r="O126">
-        <v>1</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c s="1" r="A127">
+      <c r="G127" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>17</v>
+      </c>
+      <c r="K127" t="s">
+        <v>18</v>
+      </c>
+      <c r="L127">
+        <v>2007</v>
+      </c>
+      <c r="M127">
+        <v>2.5</v>
+      </c>
+      <c r="N127">
+        <v>5</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A128" s="1">
         <v>41462</v>
       </c>
-      <c r="B127">
+      <c r="B128">
         <v>64022</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
         <v>1.66</v>
       </c>
-      <c r="F127">
+      <c r="F128">
         <v>5.81</v>
       </c>
-      <c t="s" r="G127">
-        <v>19</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c t="s" r="J127">
-        <v>17</v>
-      </c>
-      <c t="s" r="K127">
-        <v>18</v>
-      </c>
-      <c r="L127">
-        <v>2007</v>
-      </c>
-      <c r="M127">
-        <v>2.5</v>
-      </c>
-      <c r="N127">
-        <v>5</v>
-      </c>
-      <c r="O127">
-        <v>1</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c s="1" r="A128">
+      <c r="G128" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" t="s">
+        <v>17</v>
+      </c>
+      <c r="K128" t="s">
+        <v>18</v>
+      </c>
+      <c r="L128">
+        <v>2007</v>
+      </c>
+      <c r="M128">
+        <v>2.5</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A129" s="1">
         <v>41463</v>
       </c>
-      <c r="B128">
+      <c r="B129">
         <v>64414</v>
       </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>12.556</v>
-      </c>
-      <c r="F128">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>12.555999999999999</v>
+      </c>
+      <c r="F129">
         <v>40.17</v>
       </c>
-      <c t="s" r="G128">
-        <v>19</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-      <c r="I128">
-        <v>1</v>
-      </c>
-      <c t="s" r="J128">
-        <v>17</v>
-      </c>
-      <c t="s" r="K128">
-        <v>18</v>
-      </c>
-      <c r="L128">
-        <v>2007</v>
-      </c>
-      <c r="M128">
-        <v>2.5</v>
-      </c>
-      <c r="N128">
-        <v>5</v>
-      </c>
-      <c r="O128">
-        <v>1</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c s="1" r="A129">
+      <c r="G129" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" t="s">
+        <v>17</v>
+      </c>
+      <c r="K129" t="s">
+        <v>18</v>
+      </c>
+      <c r="L129">
+        <v>2007</v>
+      </c>
+      <c r="M129">
+        <v>2.5</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="O129">
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A130" s="1">
         <v>41469</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>64552</v>
       </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>4.682</v>
-      </c>
-      <c r="F129">
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>4.6820000000000004</v>
+      </c>
+      <c r="F130">
         <v>15.4</v>
       </c>
-      <c t="s" r="G129">
-        <v>19</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c t="s" r="J129">
-        <v>17</v>
-      </c>
-      <c t="s" r="K129">
-        <v>18</v>
-      </c>
-      <c r="L129">
-        <v>2007</v>
-      </c>
-      <c r="M129">
-        <v>2.5</v>
-      </c>
-      <c r="N129">
-        <v>5</v>
-      </c>
-      <c r="O129">
-        <v>1</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c s="1" r="A130">
+      <c r="G130" t="s">
+        <v>19</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" t="s">
+        <v>17</v>
+      </c>
+      <c r="K130" t="s">
+        <v>18</v>
+      </c>
+      <c r="L130">
+        <v>2007</v>
+      </c>
+      <c r="M130">
+        <v>2.5</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A131" s="1">
         <v>41489</v>
       </c>
-      <c r="B130">
+      <c r="B131">
         <v>64945</v>
       </c>
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
         <v>12.98</v>
       </c>
-      <c r="F130">
+      <c r="F131">
         <v>43.99</v>
       </c>
-      <c t="s" r="G130">
-        <v>19</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130">
-        <v>1</v>
-      </c>
-      <c t="s" r="J130">
-        <v>17</v>
-      </c>
-      <c t="s" r="K130">
-        <v>18</v>
-      </c>
-      <c r="L130">
-        <v>2007</v>
-      </c>
-      <c r="M130">
-        <v>2.5</v>
-      </c>
-      <c r="N130">
-        <v>5</v>
-      </c>
-      <c r="O130">
-        <v>1</v>
-      </c>
-      <c r="P130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c s="1" r="A131">
+      <c r="G131" t="s">
+        <v>19</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" t="s">
+        <v>17</v>
+      </c>
+      <c r="K131" t="s">
+        <v>18</v>
+      </c>
+      <c r="L131">
+        <v>2007</v>
+      </c>
+      <c r="M131">
+        <v>2.5</v>
+      </c>
+      <c r="N131">
+        <v>5</v>
+      </c>
+      <c r="O131">
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A132" s="1">
         <v>41496</v>
       </c>
-      <c r="B131">
+      <c r="B132">
         <v>65354</v>
       </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
         <v>12.641</v>
       </c>
-      <c r="F131">
+      <c r="F132">
         <v>43.6</v>
       </c>
-      <c t="s" r="G131">
-        <v>19</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c t="s" r="J131">
-        <v>17</v>
-      </c>
-      <c t="s" r="K131">
-        <v>18</v>
-      </c>
-      <c r="L131">
-        <v>2007</v>
-      </c>
-      <c r="M131">
-        <v>2.5</v>
-      </c>
-      <c r="N131">
-        <v>5</v>
-      </c>
-      <c r="O131">
-        <v>1</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c s="1" r="A132">
+      <c r="G132" t="s">
+        <v>19</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>17</v>
+      </c>
+      <c r="K132" t="s">
+        <v>18</v>
+      </c>
+      <c r="L132">
+        <v>2007</v>
+      </c>
+      <c r="M132">
+        <v>2.5</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132">
+        <v>1</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A133" s="1">
         <v>41497</v>
       </c>
-      <c r="B132">
+      <c r="B133">
         <v>65724</v>
       </c>
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132">
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133">
         <v>3</v>
       </c>
-      <c r="E132">
+      <c r="E133">
         <v>11.22</v>
       </c>
-      <c r="F132">
+      <c r="F133">
         <v>48.35</v>
       </c>
-      <c t="s" r="G132">
-        <v>19</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132">
-        <v>0</v>
-      </c>
-      <c t="s" r="J132">
-        <v>17</v>
-      </c>
-      <c t="s" r="K132">
-        <v>18</v>
-      </c>
-      <c r="L132">
-        <v>2007</v>
-      </c>
-      <c r="M132">
-        <v>2.5</v>
-      </c>
-      <c r="N132">
-        <v>5</v>
-      </c>
-      <c r="O132">
-        <v>1</v>
-      </c>
-      <c r="P132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c s="1" r="A133">
+      <c r="G133" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>17</v>
+      </c>
+      <c r="K133" t="s">
+        <v>18</v>
+      </c>
+      <c r="L133">
+        <v>2007</v>
+      </c>
+      <c r="M133">
+        <v>2.5</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A134" s="1">
         <v>41503</v>
       </c>
-      <c r="B133">
+      <c r="B134">
         <v>65995</v>
       </c>
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>8.107</v>
-      </c>
-      <c r="F133">
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134">
+        <v>8.1069999999999993</v>
+      </c>
+      <c r="F134">
         <v>27.23</v>
       </c>
-      <c t="s" r="G133">
-        <v>19</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133">
-        <v>1</v>
-      </c>
-      <c t="s" r="J133">
-        <v>17</v>
-      </c>
-      <c t="s" r="K133">
-        <v>18</v>
-      </c>
-      <c r="L133">
-        <v>2007</v>
-      </c>
-      <c r="M133">
-        <v>2.5</v>
-      </c>
-      <c r="N133">
-        <v>5</v>
-      </c>
-      <c r="O133">
-        <v>1</v>
-      </c>
-      <c r="P133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c s="1" r="A134">
+      <c r="G134" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>17</v>
+      </c>
+      <c r="K134" t="s">
+        <v>18</v>
+      </c>
+      <c r="L134">
+        <v>2007</v>
+      </c>
+      <c r="M134">
+        <v>2.5</v>
+      </c>
+      <c r="N134">
+        <v>5</v>
+      </c>
+      <c r="O134">
+        <v>1</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A135" s="1">
         <v>41504</v>
       </c>
-      <c r="B134">
+      <c r="B135">
         <v>66334</v>
       </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>1</v>
-      </c>
-      <c r="E134">
-        <v>9.275</v>
-      </c>
-      <c r="F134">
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>9.2750000000000004</v>
+      </c>
+      <c r="F135">
         <v>31.53</v>
       </c>
-      <c t="s" r="G134">
-        <v>19</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-      <c r="I134">
-        <v>1</v>
-      </c>
-      <c t="s" r="J134">
-        <v>17</v>
-      </c>
-      <c t="s" r="K134">
-        <v>18</v>
-      </c>
-      <c r="L134">
-        <v>2007</v>
-      </c>
-      <c r="M134">
-        <v>2.5</v>
-      </c>
-      <c r="N134">
-        <v>5</v>
-      </c>
-      <c r="O134">
-        <v>1</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c s="1" r="A135">
+      <c r="G135" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>17</v>
+      </c>
+      <c r="K135" t="s">
+        <v>18</v>
+      </c>
+      <c r="L135">
+        <v>2007</v>
+      </c>
+      <c r="M135">
+        <v>2.5</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135">
+        <v>1</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A136" s="1">
         <v>41504</v>
       </c>
-      <c r="B135">
+      <c r="B136">
         <v>66533</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-      <c r="E135">
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
         <v>9</v>
       </c>
-      <c r="F135">
+      <c r="F136">
         <v>30.23</v>
       </c>
-      <c t="s" r="G135">
-        <v>19</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135">
-        <v>1</v>
-      </c>
-      <c t="s" r="J135">
-        <v>17</v>
-      </c>
-      <c t="s" r="K135">
-        <v>18</v>
-      </c>
-      <c r="L135">
-        <v>2007</v>
-      </c>
-      <c r="M135">
-        <v>2.5</v>
-      </c>
-      <c r="N135">
-        <v>5</v>
-      </c>
-      <c r="O135">
-        <v>1</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c s="1" r="A136">
+      <c r="G136" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>17</v>
+      </c>
+      <c r="K136" t="s">
+        <v>18</v>
+      </c>
+      <c r="L136">
+        <v>2007</v>
+      </c>
+      <c r="M136">
+        <v>2.5</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A137" s="1">
         <v>41510</v>
       </c>
-      <c r="B136">
+      <c r="B137">
         <v>66724</v>
       </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>5.925</v>
-      </c>
-      <c r="F136">
-        <v>19.9</v>
-      </c>
-      <c t="s" r="G136">
-        <v>19</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
-      <c t="s" r="J136">
-        <v>17</v>
-      </c>
-      <c t="s" r="K136">
-        <v>18</v>
-      </c>
-      <c r="L136">
-        <v>2007</v>
-      </c>
-      <c r="M136">
-        <v>2.5</v>
-      </c>
-      <c r="N136">
-        <v>5</v>
-      </c>
-      <c r="O136">
-        <v>1</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c s="1" r="A137">
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>5.9249999999999998</v>
+      </c>
+      <c r="F137">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G137" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>17</v>
+      </c>
+      <c r="K137" t="s">
+        <v>18</v>
+      </c>
+      <c r="L137">
+        <v>2007</v>
+      </c>
+      <c r="M137">
+        <v>2.5</v>
+      </c>
+      <c r="N137">
+        <v>5</v>
+      </c>
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A138" s="1">
         <v>41510</v>
       </c>
-      <c r="B137">
+      <c r="B138">
         <v>66945</v>
       </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>6.678</v>
-      </c>
-      <c r="F137">
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>6.6779999999999999</v>
+      </c>
+      <c r="F138">
         <v>21.7</v>
       </c>
-      <c t="s" r="G137">
-        <v>19</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
-      <c t="s" r="J137">
-        <v>17</v>
-      </c>
-      <c t="s" r="K137">
-        <v>18</v>
-      </c>
-      <c r="L137">
-        <v>2007</v>
-      </c>
-      <c r="M137">
-        <v>2.5</v>
-      </c>
-      <c r="N137">
-        <v>5</v>
-      </c>
-      <c r="O137">
-        <v>1</v>
-      </c>
-      <c r="P137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c s="1" r="A138">
+      <c r="G138" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>17</v>
+      </c>
+      <c r="K138" t="s">
+        <v>18</v>
+      </c>
+      <c r="L138">
+        <v>2007</v>
+      </c>
+      <c r="M138">
+        <v>2.5</v>
+      </c>
+      <c r="N138">
+        <v>5</v>
+      </c>
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A139" s="1">
         <v>41515</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>67256</v>
       </c>
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-      <c r="E138">
-        <v>13.517</v>
-      </c>
-      <c r="F138">
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>13.516999999999999</v>
+      </c>
+      <c r="F139">
         <v>48.38</v>
       </c>
-      <c t="s" r="G138">
-        <v>19</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>1</v>
-      </c>
-      <c t="s" r="J138">
-        <v>17</v>
-      </c>
-      <c t="s" r="K138">
-        <v>18</v>
-      </c>
-      <c r="L138">
-        <v>2007</v>
-      </c>
-      <c r="M138">
-        <v>2.5</v>
-      </c>
-      <c r="N138">
-        <v>5</v>
-      </c>
-      <c r="O138">
-        <v>1</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c s="1" r="A139">
+      <c r="G139" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>17</v>
+      </c>
+      <c r="K139" t="s">
+        <v>18</v>
+      </c>
+      <c r="L139">
+        <v>2007</v>
+      </c>
+      <c r="M139">
+        <v>2.5</v>
+      </c>
+      <c r="N139">
+        <v>5</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A140" s="1">
         <v>41529</v>
       </c>
-      <c r="B139">
+      <c r="B140">
         <v>67571</v>
       </c>
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
         <v>11.923</v>
       </c>
-      <c r="F139">
-        <v>38.62</v>
-      </c>
-      <c t="s" r="G139">
-        <v>19</v>
-      </c>
-      <c r="H139">
-        <v>0</v>
-      </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
-      <c t="s" r="J139">
-        <v>17</v>
-      </c>
-      <c t="s" r="K139">
-        <v>18</v>
-      </c>
-      <c r="L139">
-        <v>2007</v>
-      </c>
-      <c r="M139">
-        <v>2.5</v>
-      </c>
-      <c r="N139">
-        <v>5</v>
-      </c>
-      <c r="O139">
-        <v>1</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c s="1" r="A140">
+      <c r="F140">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="G140" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>17</v>
+      </c>
+      <c r="K140" t="s">
+        <v>18</v>
+      </c>
+      <c r="L140">
+        <v>2007</v>
+      </c>
+      <c r="M140">
+        <v>2.5</v>
+      </c>
+      <c r="N140">
+        <v>5</v>
+      </c>
+      <c r="O140">
+        <v>1</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A141" s="1">
         <v>41531</v>
       </c>
-      <c r="B140">
+      <c r="B141">
         <v>67929</v>
       </c>
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-      <c r="E140">
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
         <v>11.571</v>
       </c>
-      <c r="F140">
+      <c r="F141">
         <v>39.33</v>
       </c>
-      <c t="s" r="G140">
-        <v>19</v>
-      </c>
-      <c r="H140">
-        <v>0</v>
-      </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
-      <c t="s" r="J140">
-        <v>17</v>
-      </c>
-      <c t="s" r="K140">
-        <v>18</v>
-      </c>
-      <c r="L140">
-        <v>2007</v>
-      </c>
-      <c r="M140">
-        <v>2.5</v>
-      </c>
-      <c r="N140">
-        <v>5</v>
-      </c>
-      <c r="O140">
-        <v>1</v>
-      </c>
-      <c r="P140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c s="1" r="A141">
+      <c r="G141" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" t="s">
+        <v>17</v>
+      </c>
+      <c r="K141" t="s">
+        <v>18</v>
+      </c>
+      <c r="L141">
+        <v>2007</v>
+      </c>
+      <c r="M141">
+        <v>2.5</v>
+      </c>
+      <c r="N141">
+        <v>5</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A142" s="1">
         <v>41531</v>
       </c>
-      <c r="B141">
+      <c r="B142">
         <v>68125</v>
       </c>
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141">
-        <v>1</v>
-      </c>
-      <c r="E141">
-        <v>6.002</v>
-      </c>
-      <c r="F141">
-        <v>19.56</v>
-      </c>
-      <c t="s" r="G141">
-        <v>19</v>
-      </c>
-      <c r="H141">
-        <v>0</v>
-      </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c t="s" r="J141">
-        <v>17</v>
-      </c>
-      <c t="s" r="K141">
-        <v>18</v>
-      </c>
-      <c r="L141">
-        <v>2007</v>
-      </c>
-      <c r="M141">
-        <v>2.5</v>
-      </c>
-      <c r="N141">
-        <v>5</v>
-      </c>
-      <c r="O141">
-        <v>1</v>
-      </c>
-      <c r="P141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c s="1" r="A142">
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>6.0019999999999998</v>
+      </c>
+      <c r="F142">
+        <v>19.559999999999999</v>
+      </c>
+      <c r="G142" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" t="s">
+        <v>17</v>
+      </c>
+      <c r="K142" t="s">
+        <v>18</v>
+      </c>
+      <c r="L142">
+        <v>2007</v>
+      </c>
+      <c r="M142">
+        <v>2.5</v>
+      </c>
+      <c r="N142">
+        <v>5</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A143" s="1">
         <v>41545</v>
       </c>
-      <c r="B142">
+      <c r="B143">
         <v>68468</v>
       </c>
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-      <c r="E142">
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
         <v>12.807</v>
       </c>
-      <c r="F142">
+      <c r="F143">
         <v>44.3</v>
       </c>
-      <c t="s" r="G142">
-        <v>19</v>
-      </c>
-      <c r="H142">
-        <v>0</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c t="s" r="J142">
-        <v>17</v>
-      </c>
-      <c t="s" r="K142">
-        <v>18</v>
-      </c>
-      <c r="L142">
-        <v>2007</v>
-      </c>
-      <c r="M142">
-        <v>2.5</v>
-      </c>
-      <c r="N142">
-        <v>5</v>
-      </c>
-      <c r="O142">
-        <v>1</v>
-      </c>
-      <c r="P142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c s="1" r="A143">
+      <c r="G143" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>17</v>
+      </c>
+      <c r="K143" t="s">
+        <v>18</v>
+      </c>
+      <c r="L143">
+        <v>2007</v>
+      </c>
+      <c r="M143">
+        <v>2.5</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A144" s="1">
         <v>41552</v>
       </c>
-      <c r="B143">
+      <c r="B144">
         <v>68821</v>
       </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143">
-        <v>1</v>
-      </c>
-      <c r="E143">
-        <v>13.239</v>
-      </c>
-      <c r="F143">
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>13.239000000000001</v>
+      </c>
+      <c r="F144">
         <v>45</v>
       </c>
-      <c t="s" r="G143">
-        <v>19</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c t="s" r="J143">
-        <v>17</v>
-      </c>
-      <c t="s" r="K143">
-        <v>18</v>
-      </c>
-      <c r="L143">
-        <v>2007</v>
-      </c>
-      <c r="M143">
-        <v>2.5</v>
-      </c>
-      <c r="N143">
-        <v>5</v>
-      </c>
-      <c r="O143">
-        <v>1</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c s="1" r="A144">
+      <c r="G144" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" t="s">
+        <v>17</v>
+      </c>
+      <c r="K144" t="s">
+        <v>18</v>
+      </c>
+      <c r="L144">
+        <v>2007</v>
+      </c>
+      <c r="M144">
+        <v>2.5</v>
+      </c>
+      <c r="N144">
+        <v>5</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A145" s="1">
         <v>41558</v>
       </c>
-      <c r="B144">
+      <c r="B145">
         <v>69157</v>
       </c>
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144">
-        <v>1</v>
-      </c>
-      <c r="E144">
-        <v>12.201</v>
-      </c>
-      <c r="F144">
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>12.201000000000001</v>
+      </c>
+      <c r="F145">
         <v>38.54</v>
       </c>
-      <c t="s" r="G144">
-        <v>19</v>
-      </c>
-      <c r="H144">
-        <v>0</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
-      <c t="s" r="J144">
-        <v>17</v>
-      </c>
-      <c t="s" r="K144">
-        <v>18</v>
-      </c>
-      <c r="L144">
-        <v>2007</v>
-      </c>
-      <c r="M144">
-        <v>2.5</v>
-      </c>
-      <c r="N144">
-        <v>5</v>
-      </c>
-      <c r="O144">
-        <v>1</v>
-      </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c s="1" r="A145">
+      <c r="G145" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>17</v>
+      </c>
+      <c r="K145" t="s">
+        <v>18</v>
+      </c>
+      <c r="L145">
+        <v>2007</v>
+      </c>
+      <c r="M145">
+        <v>2.5</v>
+      </c>
+      <c r="N145">
+        <v>5</v>
+      </c>
+      <c r="O145">
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A146" s="1">
         <v>41560</v>
       </c>
-      <c r="B145">
+      <c r="B146">
         <v>69518</v>
       </c>
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
         <v>11.048</v>
       </c>
-      <c r="F145">
+      <c r="F146">
         <v>37</v>
       </c>
-      <c t="s" r="G145">
-        <v>19</v>
-      </c>
-      <c r="H145">
-        <v>0</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-      <c t="s" r="J145">
-        <v>17</v>
-      </c>
-      <c t="s" r="K145">
-        <v>18</v>
-      </c>
-      <c r="L145">
-        <v>2007</v>
-      </c>
-      <c r="M145">
-        <v>2.5</v>
-      </c>
-      <c r="N145">
-        <v>5</v>
-      </c>
-      <c r="O145">
-        <v>1</v>
-      </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c s="1" r="A146">
+      <c r="G146" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" t="s">
+        <v>18</v>
+      </c>
+      <c r="L146">
+        <v>2007</v>
+      </c>
+      <c r="M146">
+        <v>2.5</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A147" s="1">
         <v>41561</v>
       </c>
-      <c r="B146">
+      <c r="B147">
         <v>69820</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>1</v>
-      </c>
-      <c r="E146">
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
         <v>11.46</v>
       </c>
-      <c r="F146">
-        <v>34.37</v>
-      </c>
-      <c t="s" r="G146">
-        <v>19</v>
-      </c>
-      <c r="H146">
-        <v>0</v>
-      </c>
-      <c r="I146">
-        <v>1</v>
-      </c>
-      <c t="s" r="J146">
-        <v>17</v>
-      </c>
-      <c t="s" r="K146">
-        <v>18</v>
-      </c>
-      <c r="L146">
-        <v>2007</v>
-      </c>
-      <c r="M146">
-        <v>2.5</v>
-      </c>
-      <c r="N146">
-        <v>5</v>
-      </c>
-      <c r="O146">
-        <v>1</v>
-      </c>
-      <c r="P146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c s="1" r="A147">
+      <c r="F147">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="G147" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>17</v>
+      </c>
+      <c r="K147" t="s">
+        <v>18</v>
+      </c>
+      <c r="L147">
+        <v>2007</v>
+      </c>
+      <c r="M147">
+        <v>2.5</v>
+      </c>
+      <c r="N147">
+        <v>5</v>
+      </c>
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A148" s="1">
         <v>41562</v>
       </c>
-      <c r="B147">
+      <c r="B148">
         <v>70167</v>
       </c>
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
         <v>13.311</v>
       </c>
-      <c r="F147">
+      <c r="F148">
         <v>44.58</v>
       </c>
-      <c t="s" r="G147">
-        <v>19</v>
-      </c>
-      <c r="H147">
-        <v>0</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-      <c t="s" r="J147">
-        <v>17</v>
-      </c>
-      <c t="s" r="K147">
-        <v>18</v>
-      </c>
-      <c r="L147">
-        <v>2007</v>
-      </c>
-      <c r="M147">
-        <v>2.5</v>
-      </c>
-      <c r="N147">
-        <v>5</v>
-      </c>
-      <c r="O147">
-        <v>1</v>
-      </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c s="1" r="A148">
+      <c r="G148" t="s">
+        <v>19</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>17</v>
+      </c>
+      <c r="K148" t="s">
+        <v>18</v>
+      </c>
+      <c r="L148">
+        <v>2007</v>
+      </c>
+      <c r="M148">
+        <v>2.5</v>
+      </c>
+      <c r="N148">
+        <v>5</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A149" s="1">
         <v>41593</v>
       </c>
-      <c r="B148">
+      <c r="B149">
         <v>70518</v>
       </c>
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
         <v>13.593</v>
       </c>
-      <c r="F148">
+      <c r="F149">
         <v>40.49</v>
       </c>
-      <c t="s" r="G148">
-        <v>19</v>
-      </c>
-      <c r="H148">
-        <v>0</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c t="s" r="J148">
-        <v>17</v>
-      </c>
-      <c t="s" r="K148">
-        <v>18</v>
-      </c>
-      <c r="L148">
-        <v>2007</v>
-      </c>
-      <c r="M148">
-        <v>2.5</v>
-      </c>
-      <c r="N148">
-        <v>5</v>
-      </c>
-      <c r="O148">
-        <v>1</v>
-      </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c s="1" r="A149">
+      <c r="G149" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>17</v>
+      </c>
+      <c r="K149" t="s">
+        <v>18</v>
+      </c>
+      <c r="L149">
+        <v>2007</v>
+      </c>
+      <c r="M149">
+        <v>2.5</v>
+      </c>
+      <c r="N149">
+        <v>5</v>
+      </c>
+      <c r="O149">
+        <v>1</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A150" s="1">
         <v>41594</v>
       </c>
-      <c r="B149">
+      <c r="B150">
         <v>70695</v>
       </c>
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <v>7.371</v>
-      </c>
-      <c r="F149">
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>7.3710000000000004</v>
+      </c>
+      <c r="F150">
         <v>21.22</v>
       </c>
-      <c t="s" r="G149">
-        <v>19</v>
-      </c>
-      <c r="H149">
-        <v>0</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c t="s" r="J149">
-        <v>17</v>
-      </c>
-      <c t="s" r="K149">
-        <v>18</v>
-      </c>
-      <c r="L149">
-        <v>2007</v>
-      </c>
-      <c r="M149">
-        <v>2.5</v>
-      </c>
-      <c r="N149">
-        <v>5</v>
-      </c>
-      <c r="O149">
-        <v>1</v>
-      </c>
-      <c r="P149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c s="1" r="A150">
+      <c r="G150" t="s">
+        <v>19</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>17</v>
+      </c>
+      <c r="K150" t="s">
+        <v>18</v>
+      </c>
+      <c r="L150">
+        <v>2007</v>
+      </c>
+      <c r="M150">
+        <v>2.5</v>
+      </c>
+      <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150">
+        <v>1</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A151" s="1">
         <v>41622</v>
       </c>
-      <c r="B150">
+      <c r="B151">
         <v>70994</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
-        <v>1</v>
-      </c>
-      <c r="E150">
-        <v>5</v>
-      </c>
-      <c r="F150">
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
         <v>16.5</v>
       </c>
-      <c t="s" r="G150">
-        <v>19</v>
-      </c>
-      <c r="H150">
-        <v>0</v>
-      </c>
-      <c r="I150">
-        <v>1</v>
-      </c>
-      <c t="s" r="J150">
-        <v>17</v>
-      </c>
-      <c t="s" r="K150">
-        <v>18</v>
-      </c>
-      <c r="L150">
-        <v>2007</v>
-      </c>
-      <c r="M150">
-        <v>2.5</v>
-      </c>
-      <c r="N150">
-        <v>5</v>
-      </c>
-      <c r="O150">
-        <v>1</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c s="1" r="A151">
+      <c r="G151" t="s">
+        <v>19</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" t="s">
+        <v>18</v>
+      </c>
+      <c r="L151">
+        <v>2007</v>
+      </c>
+      <c r="M151">
+        <v>2.5</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151">
+        <v>1</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A152" s="1">
         <v>41627</v>
       </c>
-      <c r="B151">
+      <c r="B152">
         <v>71154</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
         <v>14.292</v>
       </c>
-      <c r="F151">
+      <c r="F152">
         <v>43.86</v>
       </c>
-      <c t="s" r="G151">
-        <v>19</v>
-      </c>
-      <c r="H151">
-        <v>0</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-      <c t="s" r="J151">
-        <v>17</v>
-      </c>
-      <c t="s" r="K151">
-        <v>18</v>
-      </c>
-      <c r="L151">
-        <v>2007</v>
-      </c>
-      <c r="M151">
-        <v>2.5</v>
-      </c>
-      <c r="N151">
-        <v>5</v>
-      </c>
-      <c r="O151">
-        <v>1</v>
-      </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c s="1" r="A152">
+      <c r="G152" t="s">
+        <v>19</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" t="s">
+        <v>17</v>
+      </c>
+      <c r="K152" t="s">
+        <v>18</v>
+      </c>
+      <c r="L152">
+        <v>2007</v>
+      </c>
+      <c r="M152">
+        <v>2.5</v>
+      </c>
+      <c r="N152">
+        <v>5</v>
+      </c>
+      <c r="O152">
+        <v>1</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A153" s="1">
         <v>41628</v>
       </c>
-      <c r="B152">
+      <c r="B153">
         <v>71440</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <v>9.617</v>
-      </c>
-      <c r="F152">
-        <v>32.3</v>
-      </c>
-      <c t="s" r="G152">
-        <v>19</v>
-      </c>
-      <c r="H152">
-        <v>0</v>
-      </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
-      <c t="s" r="J152">
-        <v>17</v>
-      </c>
-      <c t="s" r="K152">
-        <v>18</v>
-      </c>
-      <c r="L152">
-        <v>2007</v>
-      </c>
-      <c r="M152">
-        <v>2.5</v>
-      </c>
-      <c r="N152">
-        <v>5</v>
-      </c>
-      <c r="O152">
-        <v>1</v>
-      </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c s="1" r="A153">
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>9.6170000000000009</v>
+      </c>
+      <c r="F153">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G153" t="s">
+        <v>19</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" t="s">
+        <v>17</v>
+      </c>
+      <c r="K153" t="s">
+        <v>18</v>
+      </c>
+      <c r="L153">
+        <v>2007</v>
+      </c>
+      <c r="M153">
+        <v>2.5</v>
+      </c>
+      <c r="N153">
+        <v>5</v>
+      </c>
+      <c r="O153">
+        <v>1</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A154" s="1">
         <v>41635</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <v>71804</v>
       </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153">
-        <v>1</v>
-      </c>
-      <c r="E153">
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
         <v>11.302</v>
       </c>
-      <c r="F153">
+      <c r="F154">
         <v>40</v>
       </c>
-      <c t="s" r="G153">
-        <v>19</v>
-      </c>
-      <c r="H153">
-        <v>0</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-      <c t="s" r="J153">
-        <v>17</v>
-      </c>
-      <c t="s" r="K153">
-        <v>18</v>
-      </c>
-      <c r="L153">
-        <v>2007</v>
-      </c>
-      <c r="M153">
-        <v>2.5</v>
-      </c>
-      <c r="N153">
-        <v>5</v>
-      </c>
-      <c r="O153">
-        <v>1</v>
-      </c>
-      <c r="P153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c s="1" r="A154">
+      <c r="G154" t="s">
+        <v>19</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" t="s">
+        <v>17</v>
+      </c>
+      <c r="K154" t="s">
+        <v>18</v>
+      </c>
+      <c r="L154">
+        <v>2007</v>
+      </c>
+      <c r="M154">
+        <v>2.5</v>
+      </c>
+      <c r="N154">
+        <v>5</v>
+      </c>
+      <c r="O154">
+        <v>1</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A155" s="1">
         <v>41637</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>72138</v>
       </c>
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154">
-        <v>1</v>
-      </c>
-      <c r="E154">
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
         <v>11.275</v>
       </c>
-      <c r="F154">
+      <c r="F155">
         <v>34.26</v>
       </c>
-      <c t="s" r="G154">
-        <v>19</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154">
-        <v>1</v>
-      </c>
-      <c t="s" r="J154">
-        <v>17</v>
-      </c>
-      <c t="s" r="K154">
-        <v>18</v>
-      </c>
-      <c r="L154">
-        <v>2007</v>
-      </c>
-      <c r="M154">
-        <v>2.5</v>
-      </c>
-      <c r="N154">
-        <v>5</v>
-      </c>
-      <c r="O154">
-        <v>1</v>
-      </c>
-      <c r="P154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c s="1" r="A155">
+      <c r="G155" t="s">
+        <v>19</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" t="s">
+        <v>17</v>
+      </c>
+      <c r="K155" t="s">
+        <v>18</v>
+      </c>
+      <c r="L155">
+        <v>2007</v>
+      </c>
+      <c r="M155">
+        <v>2.5</v>
+      </c>
+      <c r="N155">
+        <v>5</v>
+      </c>
+      <c r="O155">
+        <v>1</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="12.75" customHeight="1">
+      <c r="A156" s="1">
         <v>41641</v>
       </c>
-      <c r="B155">
+      <c r="B156">
         <v>72474</v>
       </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155">
-        <v>1</v>
-      </c>
-      <c r="E155">
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
         <v>12.205</v>
       </c>
-      <c r="F155">
+      <c r="F156">
         <v>41</v>
       </c>
-      <c t="s" r="G155">
-        <v>19</v>
-      </c>
-      <c r="H155">
-        <v>0</v>
-      </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
-      <c t="s" r="J155">
-        <v>17</v>
-      </c>
-      <c t="s" r="K155">
-        <v>18</v>
-      </c>
-      <c r="L155">
-        <v>2007</v>
-      </c>
-      <c r="M155">
-        <v>2.5</v>
-      </c>
-      <c r="N155">
-        <v>5</v>
-      </c>
-      <c r="O155">
-        <v>1</v>
-      </c>
-      <c r="P155">
+      <c r="G156" t="s">
+        <v>19</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>17</v>
+      </c>
+      <c r="K156" t="s">
+        <v>18</v>
+      </c>
+      <c r="L156">
+        <v>2007</v>
+      </c>
+      <c r="M156">
+        <v>2.5</v>
+      </c>
+      <c r="N156">
+        <v>5</v>
+      </c>
+      <c r="O156">
+        <v>1</v>
+      </c>
+      <c r="P156">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>